--- a/capiq_data/in_process_data/IQ259627.xlsx
+++ b/capiq_data/in_process_data/IQ259627.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA788B82-D0E9-4873-B56C-64EC4C76B40E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34081D2-104B-4CA4-9B1F-4EB9A1E66A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5f5f5ba3-85d8-4e4e-8aa8-9f02e0d56419"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c7301973-0fa8-4298-9d28-1e87c4fb18d0"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40544</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>70.637</v>
+        <v>-17.850000000000001</v>
       </c>
       <c r="D2">
-        <v>491.56799999999998</v>
+        <v>119.57</v>
       </c>
       <c r="E2">
-        <v>476.90499999999997</v>
+        <v>188.036</v>
       </c>
       <c r="F2">
-        <v>405.28800000000001</v>
+        <v>91.215999999999994</v>
       </c>
       <c r="G2">
-        <v>1146.0609999999999</v>
+        <v>288.49599999999998</v>
       </c>
       <c r="H2">
-        <v>2422.79</v>
+        <v>616.41099999999994</v>
       </c>
       <c r="I2">
-        <v>65.034999999999997</v>
+        <v>20.532</v>
       </c>
       <c r="J2">
-        <v>67.923000000000002</v>
+        <v>102.29900000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>305.93200000000002</v>
+        <v>102.315</v>
       </c>
       <c r="O2">
-        <v>517.37300000000005</v>
+        <v>272.69400000000002</v>
       </c>
       <c r="P2">
-        <v>92.76</v>
+        <v>102.371</v>
       </c>
       <c r="Q2">
-        <v>2.7639999999999998</v>
+        <v>12.694000000000001</v>
       </c>
       <c r="R2">
-        <v>40544</v>
+        <v>36890</v>
       </c>
       <c r="S2">
-        <v>8200</v>
+        <v>3104</v>
       </c>
       <c r="T2">
-        <v>1905.4169999999999</v>
+        <v>343.71699999999998</v>
       </c>
       <c r="U2">
-        <v>214.511</v>
+        <v>90.893000000000001</v>
       </c>
       <c r="V2">
-        <v>121.747</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-5.4210000000000003</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-64.141000000000005</v>
+        <v>27.035</v>
       </c>
       <c r="AA2">
-        <v>70.637</v>
+        <v>-17.850000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>64.555999999999997</v>
+        <v>6.3280000000000003</v>
       </c>
       <c r="D3">
-        <v>481.37299999999999</v>
+        <v>120.901</v>
       </c>
       <c r="E3">
-        <v>469.18</v>
+        <v>180.81100000000001</v>
       </c>
       <c r="F3">
-        <v>400.98399999999998</v>
+        <v>95.162999999999997</v>
       </c>
       <c r="G3">
-        <v>1203.816</v>
+        <v>281.45800000000003</v>
       </c>
       <c r="H3">
-        <v>2561.5439999999999</v>
+        <v>579.81100000000004</v>
       </c>
       <c r="I3">
-        <v>68.159000000000006</v>
+        <v>15.102</v>
       </c>
       <c r="J3">
-        <v>74.313999999999993</v>
+        <v>101.63500000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.114</v>
+        <v>-0.68</v>
       </c>
       <c r="N3">
-        <v>314.82900000000001</v>
+        <v>90.59</v>
       </c>
       <c r="O3">
-        <v>538.85799999999995</v>
+        <v>248.56800000000001</v>
       </c>
       <c r="P3">
-        <v>101.435</v>
+        <v>101.691</v>
       </c>
       <c r="Q3">
-        <v>-29.943999999999999</v>
+        <v>-1.484</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2022.6859999999999</v>
+        <v>331.24299999999999</v>
       </c>
       <c r="U3">
-        <v>184.56700000000001</v>
+        <v>89.409000000000006</v>
       </c>
       <c r="V3">
-        <v>126.501</v>
+        <v>11.781000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>31.145</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-145.19900000000001</v>
+        <v>1.427</v>
       </c>
       <c r="AA3">
-        <v>64.555999999999997</v>
+        <v>6.3280000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>72.043999999999997</v>
+        <v>-68.983000000000004</v>
       </c>
       <c r="D4">
-        <v>512.47500000000002</v>
+        <v>129.89099999999999</v>
       </c>
       <c r="E4">
-        <v>504.29</v>
+        <v>192.61799999999999</v>
       </c>
       <c r="F4">
-        <v>425.74099999999999</v>
+        <v>100.044</v>
       </c>
       <c r="G4">
-        <v>1313.3219999999999</v>
+        <v>304.88499999999999</v>
       </c>
       <c r="H4">
-        <v>2720.8069999999998</v>
+        <v>629.17700000000002</v>
       </c>
       <c r="I4">
-        <v>72.570999999999998</v>
+        <v>27.887</v>
       </c>
       <c r="J4">
-        <v>84.870999999999995</v>
+        <v>104.58799999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>350.95100000000002</v>
+        <v>107.532</v>
       </c>
       <c r="O4">
-        <v>590.67100000000005</v>
+        <v>275.86</v>
       </c>
       <c r="P4">
-        <v>114.691</v>
+        <v>104.642</v>
       </c>
       <c r="Q4">
-        <v>29.489000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2130.136</v>
+        <v>353.31700000000001</v>
       </c>
       <c r="U4">
-        <v>214.05600000000001</v>
+        <v>98.159000000000006</v>
       </c>
       <c r="V4">
-        <v>122.127</v>
+        <v>21.603999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>24.164000000000001</v>
+        <v>4.7160000000000002</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-36.478000000000002</v>
+        <v>-1.147</v>
       </c>
       <c r="AA4">
-        <v>72.043999999999997</v>
+        <v>-68.983000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>78.834999999999994</v>
+        <v>9.2430000000000003</v>
       </c>
       <c r="D5">
-        <v>560.16499999999996</v>
+        <v>139.869</v>
       </c>
       <c r="E5">
-        <v>548.048</v>
+        <v>202.68600000000001</v>
       </c>
       <c r="F5">
-        <v>451.17599999999999</v>
+        <v>111.515</v>
       </c>
       <c r="G5">
-        <v>1423.1320000000001</v>
+        <v>315.45800000000003</v>
       </c>
       <c r="H5">
-        <v>2843.5680000000002</v>
+        <v>611.44100000000003</v>
       </c>
       <c r="I5">
-        <v>79.344999999999999</v>
+        <v>24.789000000000001</v>
       </c>
       <c r="J5">
-        <v>99.281000000000006</v>
+        <v>92.405000000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>377.50200000000001</v>
+        <v>133.648</v>
       </c>
       <c r="O5">
-        <v>636.21400000000006</v>
+        <v>274.11099999999999</v>
       </c>
       <c r="P5">
-        <v>133.84100000000001</v>
+        <v>104.503</v>
       </c>
       <c r="Q5">
-        <v>17.138000000000002</v>
+        <v>-2.19</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2207.3539999999998</v>
+        <v>337.33</v>
       </c>
       <c r="U5">
-        <v>231.19399999999999</v>
+        <v>95.968999999999994</v>
       </c>
       <c r="V5">
-        <v>129.17699999999999</v>
+        <v>16.550999999999998</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>13.669</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-74.063999999999993</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="AA5">
-        <v>78.834999999999994</v>
+        <v>9.2420000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>91.191999999999993</v>
+        <v>11.045999999999999</v>
       </c>
       <c r="D6">
-        <v>604.44799999999998</v>
+        <v>151.76499999999999</v>
       </c>
       <c r="E6">
-        <v>563.20899999999995</v>
+        <v>220.20500000000001</v>
       </c>
       <c r="F6">
-        <v>483.58</v>
+        <v>120.09699999999999</v>
       </c>
       <c r="G6">
-        <v>1502.3130000000001</v>
+        <v>347.67599999999999</v>
       </c>
       <c r="H6">
-        <v>3000.3580000000002</v>
+        <v>712.30200000000002</v>
       </c>
       <c r="I6">
-        <v>85.545000000000002</v>
+        <v>20.942</v>
       </c>
       <c r="J6">
-        <v>86.820999999999998</v>
+        <v>92.132000000000005</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>438.72</v>
+        <v>158.18799999999999</v>
       </c>
       <c r="O6">
-        <v>689.55700000000002</v>
+        <v>317.46300000000002</v>
       </c>
       <c r="P6">
-        <v>126.54300000000001</v>
+        <v>119.319</v>
       </c>
       <c r="Q6">
-        <v>11.952</v>
+        <v>11.567</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="S6">
-        <v>9900</v>
+        <v>4173</v>
       </c>
       <c r="T6">
-        <v>2310.8009999999999</v>
+        <v>394.839</v>
       </c>
       <c r="U6">
-        <v>243.14599999999999</v>
+        <v>107.536</v>
       </c>
       <c r="V6">
-        <v>168.489</v>
+        <v>14.901999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-20.125</v>
+        <v>14.968999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-35.652000000000001</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="AA6">
-        <v>91.191999999999993</v>
+        <v>11.045999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>88.707999999999998</v>
+        <v>9.6180000000000003</v>
       </c>
       <c r="D7">
-        <v>629.72400000000005</v>
+        <v>181.422</v>
       </c>
       <c r="E7">
-        <v>535.50400000000002</v>
+        <v>240.68100000000001</v>
       </c>
       <c r="F7">
-        <v>483.20400000000001</v>
+        <v>134.83600000000001</v>
       </c>
       <c r="G7">
-        <v>1591.471</v>
+        <v>339.93599999999998</v>
       </c>
       <c r="H7">
-        <v>3139.5590000000002</v>
+        <v>727.53700000000003</v>
       </c>
       <c r="I7">
-        <v>113.568</v>
+        <v>28.026</v>
       </c>
       <c r="J7">
-        <v>107.85599999999999</v>
+        <v>91.195999999999998</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.97</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="N7">
-        <v>443.52</v>
+        <v>155.38499999999999</v>
       </c>
       <c r="O7">
-        <v>695.70699999999999</v>
+        <v>315.42500000000001</v>
       </c>
       <c r="P7">
-        <v>152.63399999999999</v>
+        <v>119.316</v>
       </c>
       <c r="Q7">
-        <v>38.052</v>
+        <v>-33.070999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2443.8519999999999</v>
+        <v>412.11200000000002</v>
       </c>
       <c r="U7">
-        <v>281.19799999999998</v>
+        <v>74.465000000000003</v>
       </c>
       <c r="V7">
-        <v>162.708</v>
+        <v>-7.9660000000000002</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>26.311</v>
+        <v>0.375</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-100.101</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="AA7">
-        <v>88.707999999999998</v>
+        <v>9.6180000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>97.828999999999994</v>
+        <v>14.692</v>
       </c>
       <c r="D8">
-        <v>621.34100000000001</v>
+        <v>186.82400000000001</v>
       </c>
       <c r="E8">
-        <v>492.529</v>
+        <v>250.05799999999999</v>
       </c>
       <c r="F8">
-        <v>489.858</v>
+        <v>141.57900000000001</v>
       </c>
       <c r="G8">
-        <v>1660.7809999999999</v>
+        <v>418.017</v>
       </c>
       <c r="H8">
-        <v>3299.0439999999999</v>
+        <v>719.86400000000003</v>
       </c>
       <c r="I8">
-        <v>123.869</v>
+        <v>30.759</v>
       </c>
       <c r="J8">
-        <v>125.95099999999999</v>
+        <v>79.698999999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>465.12599999999998</v>
+        <v>201.81</v>
       </c>
       <c r="O8">
-        <v>730.524</v>
+        <v>310.16199999999998</v>
       </c>
       <c r="P8">
-        <v>176.08</v>
+        <v>117.83499999999999</v>
       </c>
       <c r="Q8">
-        <v>21.59</v>
+        <v>68.921000000000006</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2568.52</v>
+        <v>409.702</v>
       </c>
       <c r="U8">
-        <v>302.78800000000001</v>
+        <v>143.386</v>
       </c>
       <c r="V8">
-        <v>182.839</v>
+        <v>16.416</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>27.396000000000001</v>
+        <v>-0.48299999999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-108.348</v>
+        <v>90.260999999999996</v>
       </c>
       <c r="AA8">
-        <v>97.828999999999994</v>
+        <v>14.692</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>98.887</v>
+        <v>13.768000000000001</v>
       </c>
       <c r="D9">
-        <v>662.20600000000002</v>
+        <v>196.989</v>
       </c>
       <c r="E9">
-        <v>542.41499999999996</v>
+        <v>263.73099999999999</v>
       </c>
       <c r="F9">
-        <v>526.904</v>
+        <v>153.16</v>
       </c>
       <c r="G9">
-        <v>1745.78</v>
+        <v>381.14</v>
       </c>
       <c r="H9">
-        <v>3470.4560000000001</v>
+        <v>704.89099999999996</v>
       </c>
       <c r="I9">
-        <v>134.77500000000001</v>
+        <v>36.780999999999999</v>
       </c>
       <c r="J9">
-        <v>141.678</v>
+        <v>78.432000000000002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>496.00700000000001</v>
+        <v>175.30500000000001</v>
       </c>
       <c r="O9">
-        <v>773.779</v>
+        <v>281.37099999999998</v>
       </c>
       <c r="P9">
-        <v>196.65700000000001</v>
+        <v>116.559</v>
       </c>
       <c r="Q9">
-        <v>-14.686999999999999</v>
+        <v>-54.828000000000003</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2696.6770000000001</v>
+        <v>423.52</v>
       </c>
       <c r="U9">
-        <v>288.101</v>
+        <v>88.558000000000007</v>
       </c>
       <c r="V9">
-        <v>182.21299999999999</v>
+        <v>-14.082000000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>8.6539999999999999</v>
+        <v>-0.30199999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-127.991</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>98.887</v>
+        <v>13.768000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>111.80800000000001</v>
+        <v>9.9440000000000008</v>
       </c>
       <c r="D10">
-        <v>696.85699999999997</v>
+        <v>215.02699999999999</v>
       </c>
       <c r="E10">
-        <v>577.84799999999996</v>
+        <v>272.66800000000001</v>
       </c>
       <c r="F10">
-        <v>557.27300000000002</v>
+        <v>160.137</v>
       </c>
       <c r="G10">
-        <v>1790.5060000000001</v>
+        <v>457.548</v>
       </c>
       <c r="H10">
-        <v>3704.4679999999998</v>
+        <v>789.14099999999996</v>
       </c>
       <c r="I10">
-        <v>141.21199999999999</v>
+        <v>46.822000000000003</v>
       </c>
       <c r="J10">
-        <v>136.55699999999999</v>
+        <v>136.636</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>580.11199999999997</v>
+        <v>175.41300000000001</v>
       </c>
       <c r="O10">
-        <v>870.81799999999998</v>
+        <v>347.89699999999999</v>
       </c>
       <c r="P10">
-        <v>196.13900000000001</v>
+        <v>148.83799999999999</v>
       </c>
       <c r="Q10">
-        <v>29.018999999999998</v>
+        <v>53.984999999999999</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="S10">
-        <v>11900</v>
+        <v>4791</v>
       </c>
       <c r="T10">
-        <v>2833.65</v>
+        <v>441.24400000000003</v>
       </c>
       <c r="U10">
-        <v>317.12</v>
+        <v>142.54300000000001</v>
       </c>
       <c r="V10">
-        <v>180.554</v>
+        <v>42.537999999999997</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>3.673</v>
+        <v>37.866999999999997</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-18.163</v>
+        <v>5.0149999999999997</v>
       </c>
       <c r="AA10">
-        <v>111.80800000000001</v>
+        <v>9.9440000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>110.04</v>
+        <v>5.593</v>
       </c>
       <c r="D11">
-        <v>665.45799999999997</v>
+        <v>198.191</v>
       </c>
       <c r="E11">
-        <v>512.07799999999997</v>
+        <v>250.61199999999999</v>
       </c>
       <c r="F11">
-        <v>552.79999999999995</v>
+        <v>149.93899999999999</v>
       </c>
       <c r="G11">
-        <v>1727.56</v>
+        <v>420.06</v>
       </c>
       <c r="H11">
-        <v>3765.1489999999999</v>
+        <v>762.68100000000004</v>
       </c>
       <c r="I11">
-        <v>148.87700000000001</v>
+        <v>32.404000000000003</v>
       </c>
       <c r="J11">
-        <v>135.47</v>
+        <v>135.44200000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-9.75</v>
+        <v>-1.2509999999999999</v>
       </c>
       <c r="N11">
-        <v>572.423</v>
+        <v>144.148</v>
       </c>
       <c r="O11">
-        <v>865.90899999999999</v>
+        <v>315.423</v>
       </c>
       <c r="P11">
-        <v>182.375</v>
+        <v>147.58699999999999</v>
       </c>
       <c r="Q11">
-        <v>-35.661999999999999</v>
+        <v>-7.5039999999999996</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2899.24</v>
+        <v>447.25799999999998</v>
       </c>
       <c r="U11">
-        <v>281.45800000000003</v>
+        <v>135.03899999999999</v>
       </c>
       <c r="V11">
-        <v>213.648</v>
+        <v>21.905999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-56.430999999999997</v>
+        <v>-0.39</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-16.606000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>110.04</v>
+        <v>5.593</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>112.907</v>
+        <v>8.9429999999999996</v>
       </c>
       <c r="D12">
-        <v>687.15</v>
+        <v>207.69499999999999</v>
       </c>
       <c r="E12">
-        <v>527.89599999999996</v>
+        <v>255.63499999999999</v>
       </c>
       <c r="F12">
-        <v>581.76099999999997</v>
+        <v>154.59899999999999</v>
       </c>
       <c r="G12">
-        <v>1713.296</v>
+        <v>411.185</v>
       </c>
       <c r="H12">
-        <v>3843.9409999999998</v>
+        <v>773.31600000000003</v>
       </c>
       <c r="I12">
-        <v>169.73500000000001</v>
+        <v>32.360999999999997</v>
       </c>
       <c r="J12">
-        <v>132.971</v>
+        <v>123.901</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>605.44000000000005</v>
+        <v>155.928</v>
       </c>
       <c r="O12">
-        <v>892.93399999999997</v>
+        <v>319.71100000000001</v>
       </c>
       <c r="P12">
-        <v>181.899</v>
+        <v>135.90899999999999</v>
       </c>
       <c r="Q12">
-        <v>-10.694000000000001</v>
+        <v>-14.000999999999999</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2951.0070000000001</v>
+        <v>453.60500000000002</v>
       </c>
       <c r="U12">
-        <v>270.76400000000001</v>
+        <v>121.038</v>
       </c>
       <c r="V12">
-        <v>176.50700000000001</v>
+        <v>36.628999999999998</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-56.784999999999997</v>
+        <v>-18.456</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>12.884</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>112.907</v>
+        <v>8.9429999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>115.34399999999999</v>
+        <v>12.047000000000001</v>
       </c>
       <c r="D13">
-        <v>711.15200000000004</v>
+        <v>206.292</v>
       </c>
       <c r="E13">
-        <v>529.303</v>
+        <v>252.29599999999999</v>
       </c>
       <c r="F13">
-        <v>608.25300000000004</v>
+        <v>160.857</v>
       </c>
       <c r="G13">
-        <v>1701.0940000000001</v>
+        <v>407.21600000000001</v>
       </c>
       <c r="H13">
-        <v>3966.37</v>
+        <v>791.76199999999994</v>
       </c>
       <c r="I13">
-        <v>147.01599999999999</v>
+        <v>29.254999999999999</v>
       </c>
       <c r="J13">
-        <v>131.03</v>
+        <v>124.386</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>584.44000000000005</v>
+        <v>157.99799999999999</v>
       </c>
       <c r="O13">
-        <v>888.98</v>
+        <v>322.29000000000002</v>
       </c>
       <c r="P13">
-        <v>182.90199999999999</v>
+        <v>136.62100000000001</v>
       </c>
       <c r="Q13">
-        <v>16.756</v>
+        <v>-1.2330000000000001</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3077.39</v>
+        <v>469.47199999999998</v>
       </c>
       <c r="U13">
-        <v>287.52</v>
+        <v>119.80500000000001</v>
       </c>
       <c r="V13">
-        <v>164.23</v>
+        <v>33.29</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-9.2360000000000007</v>
+        <v>4.165</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-3.1909999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>115.34399999999999</v>
+        <v>12.047000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37989</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>60.063000000000002</v>
+        <v>16.207999999999998</v>
       </c>
       <c r="D14">
-        <v>776.87900000000002</v>
+        <v>227.40899999999999</v>
       </c>
       <c r="E14">
-        <v>582.92600000000004</v>
+        <v>256.57400000000001</v>
       </c>
       <c r="F14">
-        <v>653.21199999999999</v>
+        <v>179.90199999999999</v>
       </c>
       <c r="G14">
-        <v>1761.7080000000001</v>
+        <v>423.89100000000002</v>
       </c>
       <c r="H14">
-        <v>4098.3639999999996</v>
+        <v>854.25199999999995</v>
       </c>
       <c r="I14">
-        <v>145.01900000000001</v>
+        <v>20.753</v>
       </c>
       <c r="J14">
-        <v>111.717</v>
+        <v>124.57</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>640.43200000000002</v>
+        <v>177.47900000000001</v>
       </c>
       <c r="O14">
-        <v>930.7</v>
+        <v>358.40600000000001</v>
       </c>
       <c r="P14">
-        <v>165.82400000000001</v>
+        <v>145.732</v>
       </c>
       <c r="Q14">
-        <v>-85.143000000000001</v>
+        <v>2.0339999999999998</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37989</v>
       </c>
       <c r="S14">
-        <v>14200</v>
+        <v>5077</v>
       </c>
       <c r="T14">
-        <v>3167.6640000000002</v>
+        <v>495.846</v>
       </c>
       <c r="U14">
-        <v>202.37700000000001</v>
+        <v>121.839</v>
       </c>
       <c r="V14">
-        <v>141.47999999999999</v>
+        <v>42.325000000000003</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>3.0630000000000002</v>
+        <v>3.984</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-29.308</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>60.063000000000002</v>
+        <v>16.207999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>119.526</v>
+        <v>14.129</v>
       </c>
       <c r="D15">
-        <v>764.11599999999999</v>
+        <v>218.727</v>
       </c>
       <c r="E15">
-        <v>564.08600000000001</v>
+        <v>259.065</v>
       </c>
       <c r="F15">
-        <v>655.66200000000003</v>
+        <v>172.054</v>
       </c>
       <c r="G15">
-        <v>1915.181</v>
+        <v>445.85700000000003</v>
       </c>
       <c r="H15">
-        <v>4191.348</v>
+        <v>884.23900000000003</v>
       </c>
       <c r="I15">
-        <v>125.741</v>
+        <v>14.385</v>
       </c>
       <c r="J15">
-        <v>104.827</v>
+        <v>130.53399999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-0.83199999999999996</v>
       </c>
       <c r="M15">
-        <v>-6.6000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>611.66700000000003</v>
+        <v>176.262</v>
       </c>
       <c r="O15">
-        <v>944.95100000000002</v>
+        <v>369.899</v>
       </c>
       <c r="P15">
-        <v>160.48400000000001</v>
+        <v>154.066</v>
       </c>
       <c r="Q15">
-        <v>17.550999999999998</v>
+        <v>19.689</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3246.3969999999999</v>
+        <v>514.34</v>
       </c>
       <c r="U15">
-        <v>219.928</v>
+        <v>141.52799999999999</v>
       </c>
       <c r="V15">
-        <v>155.78700000000001</v>
+        <v>30.7</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-1.7170000000000001</v>
+        <v>5.4930000000000003</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-20.079000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>119.526</v>
+        <v>14.129</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>129.03299999999999</v>
+        <v>14.314</v>
       </c>
       <c r="D16">
-        <v>822.73</v>
+        <v>228.39</v>
       </c>
       <c r="E16">
-        <v>614.92999999999995</v>
+        <v>258.74400000000003</v>
       </c>
       <c r="F16">
-        <v>689.39300000000003</v>
+        <v>177.82599999999999</v>
       </c>
       <c r="G16">
-        <v>1903.269</v>
+        <v>441.65300000000002</v>
       </c>
       <c r="H16">
-        <v>4265.2749999999996</v>
+        <v>891.64200000000005</v>
       </c>
       <c r="I16">
-        <v>148.85400000000001</v>
+        <v>20.198</v>
       </c>
       <c r="J16">
-        <v>96.084000000000003</v>
+        <v>111.095</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>672.52200000000005</v>
+        <v>181.14</v>
       </c>
       <c r="O16">
-        <v>1005.506</v>
+        <v>356.63799999999998</v>
       </c>
       <c r="P16">
-        <v>155.37100000000001</v>
+        <v>135.81</v>
       </c>
       <c r="Q16">
-        <v>95.331999999999994</v>
+        <v>-4.3040000000000003</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3259.7689999999998</v>
+        <v>535.00400000000002</v>
       </c>
       <c r="U16">
-        <v>315.26</v>
+        <v>137.22399999999999</v>
       </c>
       <c r="V16">
-        <v>248.27099999999999</v>
+        <v>36.706000000000003</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-129.72300000000001</v>
+        <v>-13.598000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>91.468999999999994</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>129.03299999999999</v>
+        <v>14.314</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>129.00200000000001</v>
+        <v>14.779</v>
       </c>
       <c r="D17">
-        <v>817.41300000000001</v>
+        <v>231.06700000000001</v>
       </c>
       <c r="E17">
-        <v>617.20399999999995</v>
+        <v>262.37599999999998</v>
       </c>
       <c r="F17">
-        <v>700.08399999999995</v>
+        <v>186.054</v>
       </c>
       <c r="G17">
-        <v>2235.4769999999999</v>
+        <v>466.91500000000002</v>
       </c>
       <c r="H17">
-        <v>4392.6379999999999</v>
+        <v>917.15899999999999</v>
       </c>
       <c r="I17">
-        <v>169.227</v>
+        <v>17.164000000000001</v>
       </c>
       <c r="J17">
-        <v>86.756</v>
+        <v>110.36</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>671.12</v>
+        <v>184.7</v>
       </c>
       <c r="O17">
-        <v>996.428</v>
+        <v>360.48200000000003</v>
       </c>
       <c r="P17">
-        <v>146.798</v>
+        <v>135.071</v>
       </c>
       <c r="Q17">
-        <v>181.23400000000001</v>
+        <v>23.722999999999999</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3396.21</v>
+        <v>556.67700000000002</v>
       </c>
       <c r="U17">
-        <v>496.49400000000003</v>
+        <v>160.947</v>
       </c>
       <c r="V17">
-        <v>219.52099999999999</v>
+        <v>45.218000000000004</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>6.2E-2</v>
+        <v>5.2990000000000004</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>82.734999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>129.00200000000001</v>
+        <v>14.779</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42007</v>
+        <v>38353</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>147.87200000000001</v>
+        <v>21.425999999999998</v>
       </c>
       <c r="D18">
-        <v>908.55799999999999</v>
+        <v>248.172</v>
       </c>
       <c r="E18">
-        <v>672.77800000000002</v>
+        <v>282.19900000000001</v>
       </c>
       <c r="F18">
-        <v>753.18700000000001</v>
+        <v>194.07400000000001</v>
       </c>
       <c r="G18">
-        <v>2348.7860000000001</v>
+        <v>509.47300000000001</v>
       </c>
       <c r="H18">
-        <v>4530.5649999999996</v>
+        <v>982.26499999999999</v>
       </c>
       <c r="I18">
-        <v>160.285</v>
+        <v>37.008000000000003</v>
       </c>
       <c r="J18">
-        <v>62.868000000000002</v>
+        <v>108.804</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>634.31500000000005</v>
+        <v>199.244</v>
       </c>
       <c r="O18">
-        <v>964.59699999999998</v>
+        <v>383.61399999999998</v>
       </c>
       <c r="P18">
-        <v>130.328</v>
+        <v>130.71199999999999</v>
       </c>
       <c r="Q18">
-        <v>138.709</v>
+        <v>28.837</v>
       </c>
       <c r="R18">
-        <v>42007</v>
+        <v>38353</v>
       </c>
       <c r="S18">
-        <v>15800</v>
+        <v>5345</v>
       </c>
       <c r="T18">
-        <v>3565.9679999999998</v>
+        <v>598.65099999999995</v>
       </c>
       <c r="U18">
-        <v>635.20299999999997</v>
+        <v>189.78399999999999</v>
       </c>
       <c r="V18">
-        <v>223.44800000000001</v>
+        <v>55.68</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>11.054</v>
+        <v>2.8919999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>36.685000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>147.87200000000001</v>
+        <v>21.425999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>110.934</v>
+        <v>12.52</v>
       </c>
       <c r="D19">
-        <v>977.93899999999996</v>
+        <v>262.53399999999999</v>
       </c>
       <c r="E19">
-        <v>940.57100000000003</v>
+        <v>284.10700000000003</v>
       </c>
       <c r="F19">
-        <v>827.42899999999997</v>
+        <v>207.126</v>
       </c>
       <c r="G19">
-        <v>1911.2809999999999</v>
+        <v>455.79500000000002</v>
       </c>
       <c r="H19">
-        <v>5352.6049999999996</v>
+        <v>1032.3599999999999</v>
       </c>
       <c r="I19">
-        <v>195.71100000000001</v>
+        <v>36.429000000000002</v>
       </c>
       <c r="J19">
-        <v>564.33900000000006</v>
+        <v>130.614</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,84 +2300,84 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-15.669</v>
       </c>
       <c r="N19">
-        <v>792.29899999999998</v>
+        <v>210.04599999999999</v>
       </c>
       <c r="O19">
-        <v>1642.184</v>
+        <v>417.017</v>
       </c>
       <c r="P19">
-        <v>626.16700000000003</v>
+        <v>152.63200000000001</v>
       </c>
       <c r="Q19">
-        <v>-244.86799999999999</v>
+        <v>-63.103999999999999</v>
       </c>
       <c r="R19">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3710.4209999999998</v>
+        <v>615.34299999999996</v>
       </c>
       <c r="U19">
-        <v>390.33499999999998</v>
+        <v>126.68</v>
       </c>
       <c r="V19">
-        <v>214.24700000000001</v>
+        <v>44.323999999999998</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>553.18399999999997</v>
+        <v>24.846</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>514.82899999999995</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>110.934</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>115.038</v>
+        <v>19.803000000000001</v>
       </c>
       <c r="D20">
-        <v>1107.9359999999999</v>
+        <v>277.815</v>
       </c>
       <c r="E20">
-        <v>1003.143</v>
+        <v>299.673</v>
       </c>
       <c r="F20">
-        <v>933.67499999999995</v>
+        <v>218.214</v>
       </c>
       <c r="G20">
-        <v>1883.7070000000001</v>
+        <v>480.51100000000002</v>
       </c>
       <c r="H20">
-        <v>5484.8329999999996</v>
+        <v>1083.7819999999999</v>
       </c>
       <c r="I20">
-        <v>208.73400000000001</v>
+        <v>49.999000000000002</v>
       </c>
       <c r="J20">
-        <v>567.31200000000001</v>
+        <v>91.043000000000006</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>777.851</v>
+        <v>268.87599999999998</v>
       </c>
       <c r="O20">
-        <v>1620.84</v>
+        <v>437.77699999999999</v>
       </c>
       <c r="P20">
-        <v>622.76</v>
+        <v>152.922</v>
       </c>
       <c r="Q20">
-        <v>-96.355999999999995</v>
+        <v>5.6550000000000002</v>
       </c>
       <c r="R20">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3863.9929999999999</v>
+        <v>646.005</v>
       </c>
       <c r="U20">
-        <v>293.97899999999998</v>
+        <v>132.33500000000001</v>
       </c>
       <c r="V20">
-        <v>108.664</v>
+        <v>44.332999999999998</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>19.920000000000002</v>
+        <v>12.433999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-66.701999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>115.038</v>
+        <v>19.803000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>147.28200000000001</v>
+        <v>26.556000000000001</v>
       </c>
       <c r="D21">
-        <v>1108.962</v>
+        <v>294.62200000000001</v>
       </c>
       <c r="E21">
-        <v>1053.134</v>
+        <v>316.71800000000002</v>
       </c>
       <c r="F21">
-        <v>937.30399999999997</v>
+        <v>229.31700000000001</v>
       </c>
       <c r="G21">
-        <v>1803.7619999999999</v>
+        <v>513.947</v>
       </c>
       <c r="H21">
-        <v>5522.9250000000002</v>
+        <v>1142.5070000000001</v>
       </c>
       <c r="I21">
-        <v>207.887</v>
+        <v>54.423000000000002</v>
       </c>
       <c r="J21">
-        <v>572.82799999999997</v>
+        <v>90.043999999999997</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>839.33500000000004</v>
+        <v>278.19099999999997</v>
       </c>
       <c r="O21">
-        <v>1685.6</v>
+        <v>445.464</v>
       </c>
       <c r="P21">
-        <v>630.66899999999998</v>
+        <v>131.96799999999999</v>
       </c>
       <c r="Q21">
-        <v>-32.222000000000001</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="R21">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3837.3249999999998</v>
+        <v>697.04300000000001</v>
       </c>
       <c r="U21">
-        <v>261.75700000000001</v>
+        <v>134.18600000000001</v>
       </c>
       <c r="V21">
-        <v>271.52</v>
+        <v>46.930999999999997</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-184.80199999999999</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>54.505000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>147.28200000000001</v>
+        <v>26.556000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>166.108</v>
+        <v>27.372</v>
       </c>
       <c r="D22">
-        <v>1157.6279999999999</v>
+        <v>325.81400000000002</v>
       </c>
       <c r="E22">
-        <v>1034.0840000000001</v>
+        <v>316.96499999999997</v>
       </c>
       <c r="F22">
-        <v>976.07799999999997</v>
+        <v>251.44200000000001</v>
       </c>
       <c r="G22">
-        <v>1827.8330000000001</v>
+        <v>651.63099999999997</v>
       </c>
       <c r="H22">
-        <v>5561.9840000000004</v>
+        <v>1303.6289999999999</v>
       </c>
       <c r="I22">
-        <v>215.51</v>
+        <v>65.376999999999995</v>
       </c>
       <c r="J22">
-        <v>512.73400000000004</v>
+        <v>194.26499999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>777.86599999999999</v>
+        <v>260.08999999999997</v>
       </c>
       <c r="O22">
-        <v>1691.6</v>
+        <v>541.80999999999995</v>
       </c>
       <c r="P22">
-        <v>605.15</v>
+        <v>223.00800000000001</v>
       </c>
       <c r="Q22">
-        <v>140.36500000000001</v>
+        <v>-21.132000000000001</v>
       </c>
       <c r="R22">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>22200</v>
+        <v>6830</v>
       </c>
       <c r="T22">
-        <v>3870.384</v>
+        <v>761.81899999999996</v>
       </c>
       <c r="U22">
-        <v>402.12200000000001</v>
+        <v>113.057</v>
       </c>
       <c r="V22">
-        <v>353.09500000000003</v>
+        <v>93.277000000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-152.053</v>
+        <v>99.326999999999998</v>
       </c>
       <c r="Y22">
-        <v>50.619</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>217.774</v>
+        <v>-161.22999999999999</v>
       </c>
       <c r="AA22">
-        <v>166.108</v>
+        <v>27.372</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>150.36000000000001</v>
+        <v>20.143999999999998</v>
       </c>
       <c r="D23">
-        <v>1118.992</v>
+        <v>321.22399999999999</v>
       </c>
       <c r="E23">
-        <v>941.79200000000003</v>
+        <v>320.43900000000002</v>
       </c>
       <c r="F23">
-        <v>962.54200000000003</v>
+        <v>253.20599999999999</v>
       </c>
       <c r="G23">
-        <v>1728.6379999999999</v>
+        <v>668.73699999999997</v>
       </c>
       <c r="H23">
-        <v>5594.4920000000002</v>
+        <v>1342.7919999999999</v>
       </c>
       <c r="I23">
-        <v>209.38800000000001</v>
+        <v>58.064999999999998</v>
       </c>
       <c r="J23">
-        <v>553.67999999999995</v>
+        <v>191.55500000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-2.887</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>775.93200000000002</v>
+        <v>261.06099999999998</v>
       </c>
       <c r="O23">
-        <v>1678.165</v>
+        <v>543.69899999999996</v>
       </c>
       <c r="P23">
-        <v>595.44200000000001</v>
+        <v>220.124</v>
       </c>
       <c r="Q23">
-        <v>-106.533</v>
+        <v>-9.1669999999999998</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3916.3270000000002</v>
+        <v>799.09299999999996</v>
       </c>
       <c r="U23">
-        <v>295.589</v>
+        <v>103.89</v>
       </c>
       <c r="V23">
-        <v>336.20499999999998</v>
+        <v>51.189</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-140.054</v>
+        <v>6.0419999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-125.271</v>
+        <v>-12.772</v>
       </c>
       <c r="AA23">
-        <v>150.36000000000001</v>
+        <v>20.143999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>166.45400000000001</v>
+        <v>23.873000000000001</v>
       </c>
       <c r="D24">
-        <v>1193.855</v>
+        <v>330.572</v>
       </c>
       <c r="E24">
-        <v>983.31</v>
+        <v>331.31599999999997</v>
       </c>
       <c r="F24">
-        <v>1010.4059999999999</v>
+        <v>266.38</v>
       </c>
       <c r="G24">
-        <v>1933.7080000000001</v>
+        <v>683.70699999999999</v>
       </c>
       <c r="H24">
-        <v>5779.5510000000004</v>
+        <v>1373.2750000000001</v>
       </c>
       <c r="I24">
-        <v>242.12200000000001</v>
+        <v>55.631999999999998</v>
       </c>
       <c r="J24">
-        <v>546.17399999999998</v>
+        <v>186.71600000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>815.09299999999996</v>
+        <v>264.06700000000001</v>
       </c>
       <c r="O24">
-        <v>1725.575</v>
+        <v>544.97400000000005</v>
       </c>
       <c r="P24">
-        <v>584.58199999999999</v>
+        <v>208.12299999999999</v>
       </c>
       <c r="Q24">
-        <v>81.992999999999995</v>
+        <v>20.268999999999998</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4053.9760000000001</v>
+        <v>828.30100000000004</v>
       </c>
       <c r="U24">
-        <v>377.58199999999999</v>
+        <v>124.15900000000001</v>
       </c>
       <c r="V24">
-        <v>260.42899999999997</v>
+        <v>59.680999999999997</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-40.322000000000003</v>
+        <v>-15.342000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>67.421000000000006</v>
+        <v>29.748999999999999</v>
       </c>
       <c r="AA24">
-        <v>166.45400000000001</v>
+        <v>23.873000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>169.97900000000001</v>
+        <v>26.728000000000002</v>
       </c>
       <c r="D25">
-        <v>1162.337</v>
+        <v>345.452</v>
       </c>
       <c r="E25">
-        <v>985.16399999999999</v>
+        <v>351.61599999999999</v>
       </c>
       <c r="F25">
-        <v>1001.587</v>
+        <v>275.649</v>
       </c>
       <c r="G25">
-        <v>1998.3150000000001</v>
+        <v>716.34</v>
       </c>
       <c r="H25">
-        <v>5948.527</v>
+        <v>1432.9659999999999</v>
       </c>
       <c r="I25">
-        <v>219.53100000000001</v>
+        <v>54.72</v>
       </c>
       <c r="J25">
-        <v>535.91999999999996</v>
+        <v>190.34299999999999</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>828.06</v>
+        <v>281.3</v>
       </c>
       <c r="O25">
-        <v>1670.492</v>
+        <v>561.19000000000005</v>
       </c>
       <c r="P25">
-        <v>572.53899999999999</v>
+        <v>209.62799999999999</v>
       </c>
       <c r="Q25">
-        <v>53.914999999999999</v>
+        <v>15.204000000000001</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4278.0349999999999</v>
+        <v>871.77599999999995</v>
       </c>
       <c r="U25">
-        <v>431.49700000000001</v>
+        <v>139.363</v>
       </c>
       <c r="V25">
-        <v>311.06400000000002</v>
+        <v>52.906999999999996</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0.59099999999999997</v>
+        <v>8.3559999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-67.858999999999995</v>
+        <v>5.7450000000000001</v>
       </c>
       <c r="AA25">
-        <v>169.97900000000001</v>
+        <v>26.728000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>149.691</v>
+        <v>39.146000000000001</v>
       </c>
       <c r="D26">
-        <v>1232.7439999999999</v>
+        <v>380.78899999999999</v>
       </c>
       <c r="E26">
-        <v>944.94299999999998</v>
+        <v>361.42399999999998</v>
       </c>
       <c r="F26">
-        <v>1042.8219999999999</v>
+        <v>291.83300000000003</v>
       </c>
       <c r="G26">
-        <v>1619.3610000000001</v>
+        <v>751.03</v>
       </c>
       <c r="H26">
-        <v>5629.9629999999997</v>
+        <v>1496.433</v>
       </c>
       <c r="I26">
-        <v>238.13399999999999</v>
+        <v>79.734999999999999</v>
       </c>
       <c r="J26">
-        <v>513.30499999999995</v>
+        <v>187.39099999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>845.40099999999995</v>
+        <v>312.17399999999998</v>
       </c>
       <c r="O26">
-        <v>1702.0160000000001</v>
+        <v>572.85299999999995</v>
       </c>
       <c r="P26">
-        <v>563.74900000000002</v>
+        <v>207.63300000000001</v>
       </c>
       <c r="Q26">
-        <v>-260.63600000000002</v>
+        <v>23.181999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
-        <v>24400</v>
+        <v>7419</v>
       </c>
       <c r="T26">
-        <v>3927.9470000000001</v>
+        <v>923.58</v>
       </c>
       <c r="U26">
-        <v>170.86099999999999</v>
+        <v>162.54499999999999</v>
       </c>
       <c r="V26">
-        <v>337.93900000000002</v>
+        <v>68.941000000000003</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-496.892</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Y26">
-        <v>24.247</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>107.53</v>
+        <v>6.4</v>
       </c>
       <c r="AA26">
-        <v>149.691</v>
+        <v>39.146000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>173.21299999999999</v>
+        <v>27.710999999999999</v>
       </c>
       <c r="D27">
-        <v>1260.4860000000001</v>
+        <v>365.85199999999998</v>
       </c>
       <c r="E27">
-        <v>986.35400000000004</v>
+        <v>358.279</v>
       </c>
       <c r="F27">
-        <v>1061.4929999999999</v>
+        <v>293.38900000000001</v>
       </c>
       <c r="G27">
-        <v>1826.11</v>
+        <v>714.55600000000004</v>
       </c>
       <c r="H27">
-        <v>5803.2079999999996</v>
+        <v>1522.5450000000001</v>
       </c>
       <c r="I27">
-        <v>207.001</v>
+        <v>80.132999999999996</v>
       </c>
       <c r="J27">
-        <v>532.74699999999996</v>
+        <v>187.976</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-0.437</v>
       </c>
       <c r="N27">
-        <v>833.53899999999999</v>
+        <v>273.28800000000001</v>
       </c>
       <c r="O27">
-        <v>1690.3320000000001</v>
+        <v>547.96600000000001</v>
       </c>
       <c r="P27">
-        <v>550.14499999999998</v>
+        <v>207.78200000000001</v>
       </c>
       <c r="Q27">
-        <v>207.59100000000001</v>
+        <v>-16.155999999999999</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4112.8760000000002</v>
+        <v>974.57899999999995</v>
       </c>
       <c r="U27">
-        <v>378.452</v>
+        <v>146.38900000000001</v>
       </c>
       <c r="V27">
-        <v>303.58499999999998</v>
+        <v>42.402999999999999</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>4.3689999999999998</v>
+        <v>16.998999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>61.69</v>
+        <v>16.486999999999998</v>
       </c>
       <c r="AA27">
-        <v>173.21299999999999</v>
+        <v>27.710999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>179.68299999999999</v>
+        <v>26.849</v>
       </c>
       <c r="D28">
-        <v>1291.9939999999999</v>
+        <v>386.58800000000002</v>
       </c>
       <c r="E28">
-        <v>1036.98</v>
+        <v>364.65600000000001</v>
       </c>
       <c r="F28">
-        <v>1068.931</v>
+        <v>305.62599999999998</v>
       </c>
       <c r="G28">
-        <v>2012.2260000000001</v>
+        <v>718.43499999999995</v>
       </c>
       <c r="H28">
-        <v>6058.6409999999996</v>
+        <v>1570.8620000000001</v>
       </c>
       <c r="I28">
-        <v>259.09199999999998</v>
+        <v>78.757000000000005</v>
       </c>
       <c r="J28">
-        <v>524.92100000000005</v>
+        <v>183.97399999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>841.70899999999995</v>
+        <v>268.43099999999998</v>
       </c>
       <c r="O28">
-        <v>1703.1379999999999</v>
+        <v>544.53800000000001</v>
       </c>
       <c r="P28">
-        <v>543.41499999999996</v>
+        <v>198.39599999999999</v>
       </c>
       <c r="Q28">
-        <v>81.977999999999994</v>
+        <v>11.888999999999999</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4355.5029999999997</v>
+        <v>1026.3240000000001</v>
       </c>
       <c r="U28">
-        <v>460.43</v>
+        <v>158.27799999999999</v>
       </c>
       <c r="V28">
-        <v>292.24299999999999</v>
+        <v>62.064</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>23.280999999999999</v>
+        <v>7.5439999999999996</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-56.819000000000003</v>
+        <v>7.25</v>
       </c>
       <c r="AA28">
-        <v>179.68299999999999</v>
+        <v>26.849</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>177.42400000000001</v>
+        <v>31.234000000000002</v>
       </c>
       <c r="D29">
-        <v>1276.0070000000001</v>
+        <v>372.93599999999998</v>
       </c>
       <c r="E29">
-        <v>1020.707</v>
+        <v>365.709</v>
       </c>
       <c r="F29">
-        <v>1073.1030000000001</v>
+        <v>315.12700000000001</v>
       </c>
       <c r="G29">
-        <v>2231.5039999999999</v>
+        <v>743.95</v>
       </c>
       <c r="H29">
-        <v>6232.2560000000003</v>
+        <v>1631.8</v>
       </c>
       <c r="I29">
-        <v>204.32300000000001</v>
+        <v>63.808999999999997</v>
       </c>
       <c r="J29">
-        <v>521.01599999999996</v>
+        <v>190.97</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>806.86500000000001</v>
+        <v>266.09800000000001</v>
       </c>
       <c r="O29">
-        <v>1668.2529999999999</v>
+        <v>549.54600000000005</v>
       </c>
       <c r="P29">
-        <v>535.00400000000002</v>
+        <v>205.00200000000001</v>
       </c>
       <c r="Q29">
-        <v>112.624</v>
+        <v>35.825000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4564.0029999999997</v>
+        <v>1082.2539999999999</v>
       </c>
       <c r="U29">
-        <v>573.05399999999997</v>
+        <v>194.21600000000001</v>
       </c>
       <c r="V29">
-        <v>362.93700000000001</v>
+        <v>77.730999999999995</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-1.0999999999999999E-2</v>
+        <v>11.77</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-103.96899999999999</v>
+        <v>10.006</v>
       </c>
       <c r="AA29">
-        <v>177.42400000000001</v>
+        <v>31.234000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>336.65800000000002</v>
+        <v>41.331000000000003</v>
       </c>
       <c r="D30">
-        <v>1313.7850000000001</v>
+        <v>394.50099999999998</v>
       </c>
       <c r="E30">
-        <v>1042.7809999999999</v>
+        <v>391.06</v>
       </c>
       <c r="F30">
-        <v>1084.654</v>
+        <v>325.62400000000002</v>
       </c>
       <c r="G30">
-        <v>2380.2269999999999</v>
+        <v>818.56399999999996</v>
       </c>
       <c r="H30">
-        <v>6469.3109999999997</v>
+        <v>1689.9559999999999</v>
       </c>
       <c r="I30">
-        <v>218.99600000000001</v>
+        <v>79.811999999999998</v>
       </c>
       <c r="J30">
-        <v>513.64700000000005</v>
+        <v>177.60599999999999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>789.59500000000003</v>
+        <v>288.12299999999999</v>
       </c>
       <c r="O30">
-        <v>1683.963</v>
+        <v>556.24199999999996</v>
       </c>
       <c r="P30">
-        <v>526.71500000000003</v>
+        <v>191.86600000000001</v>
       </c>
       <c r="Q30">
-        <v>-202.131</v>
+        <v>-11.189</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
-        <v>26000</v>
+        <v>7873</v>
       </c>
       <c r="T30">
-        <v>4785.348</v>
+        <v>1133.7139999999999</v>
       </c>
       <c r="U30">
-        <v>370.923</v>
+        <v>182.91399999999999</v>
       </c>
       <c r="V30">
-        <v>348.91</v>
+        <v>92.367000000000004</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-138.62299999999999</v>
+        <v>0.77</v>
       </c>
       <c r="Y30">
-        <v>1.4830000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-240.876</v>
+        <v>-47.02</v>
       </c>
       <c r="AA30">
-        <v>336.65800000000002</v>
+        <v>41.331000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>160.001</v>
+        <v>36.817</v>
       </c>
       <c r="D31">
-        <v>1292.8610000000001</v>
+        <v>384.76499999999999</v>
       </c>
       <c r="E31">
-        <v>1040.741</v>
+        <v>388.25700000000001</v>
       </c>
       <c r="F31">
-        <v>1061.5830000000001</v>
+        <v>320.39100000000002</v>
       </c>
       <c r="G31">
-        <v>2365.2150000000001</v>
+        <v>731.13300000000004</v>
       </c>
       <c r="H31">
-        <v>6511.6379999999999</v>
+        <v>1725.27</v>
       </c>
       <c r="I31">
-        <v>210.04599999999999</v>
+        <v>76.727000000000004</v>
       </c>
       <c r="J31">
-        <v>438.67200000000003</v>
+        <v>177.45400000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-75</v>
+        <v>-0.32400000000000001</v>
       </c>
       <c r="N31">
-        <v>802.94200000000001</v>
+        <v>281.52199999999999</v>
       </c>
       <c r="O31">
-        <v>1611.144</v>
+        <v>546.947</v>
       </c>
       <c r="P31">
-        <v>445.577</v>
+        <v>191.559</v>
       </c>
       <c r="Q31">
-        <v>42.475999999999999</v>
+        <v>67.594999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4900.4939999999997</v>
+        <v>1178.3230000000001</v>
       </c>
       <c r="U31">
-        <v>413.399</v>
+        <v>250.50899999999999</v>
       </c>
       <c r="V31">
-        <v>408.96499999999997</v>
+        <v>50.600999999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-154.31100000000001</v>
+        <v>14.308</v>
       </c>
       <c r="Y31">
-        <v>0.10100000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>-49.713000000000001</v>
+        <v>55.26</v>
       </c>
       <c r="AA31">
-        <v>160.001</v>
+        <v>36.817</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>169.357</v>
+        <v>35.286999999999999</v>
       </c>
       <c r="D32">
-        <v>1367.7270000000001</v>
+        <v>402.8</v>
       </c>
       <c r="E32">
-        <v>1151.8599999999999</v>
+        <v>398.37099999999998</v>
       </c>
       <c r="F32">
-        <v>1128.944</v>
+        <v>331.01400000000001</v>
       </c>
       <c r="G32">
-        <v>2379.3919999999998</v>
+        <v>778.70500000000004</v>
       </c>
       <c r="H32">
-        <v>6528.9989999999998</v>
+        <v>1782.7760000000001</v>
       </c>
       <c r="I32">
-        <v>284.20299999999997</v>
+        <v>75.463999999999999</v>
       </c>
       <c r="J32">
-        <v>438.76</v>
+        <v>170.82</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>835.68700000000001</v>
+        <v>291.22500000000002</v>
       </c>
       <c r="O32">
-        <v>1650.145</v>
+        <v>558.27099999999996</v>
       </c>
       <c r="P32">
-        <v>440.91500000000002</v>
+        <v>184.667</v>
       </c>
       <c r="Q32">
-        <v>97.569000000000003</v>
+        <v>40.886000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4878.8540000000003</v>
+        <v>1224.5050000000001</v>
       </c>
       <c r="U32">
-        <v>510.96800000000002</v>
+        <v>291.39499999999998</v>
       </c>
       <c r="V32">
-        <v>299.70100000000002</v>
+        <v>85.396000000000001</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-195.96899999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>186.84899999999999</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>169.357</v>
+        <v>35.286999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>169.381</v>
+        <v>45.014000000000003</v>
       </c>
       <c r="D33">
-        <v>1340.0730000000001</v>
+        <v>422.72800000000001</v>
       </c>
       <c r="E33">
-        <v>1210.616</v>
+        <v>431.392</v>
       </c>
       <c r="F33">
-        <v>1109.741</v>
+        <v>350.411</v>
       </c>
       <c r="G33">
-        <v>2386.81</v>
+        <v>820.55799999999999</v>
       </c>
       <c r="H33">
-        <v>6785.4</v>
+        <v>1826.924</v>
       </c>
       <c r="I33">
-        <v>258.43099999999998</v>
+        <v>73.043000000000006</v>
       </c>
       <c r="J33">
-        <v>438.78100000000001</v>
+        <v>159.98500000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>907.02499999999998</v>
+        <v>293.72699999999998</v>
       </c>
       <c r="O33">
-        <v>1719.67</v>
+        <v>559.14</v>
       </c>
       <c r="P33">
-        <v>441.09899999999999</v>
+        <v>173.79900000000001</v>
       </c>
       <c r="Q33">
-        <v>-12.353999999999999</v>
+        <v>-109.137</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5065.7299999999996</v>
+        <v>1267.7840000000001</v>
       </c>
       <c r="U33">
-        <v>498.61399999999998</v>
+        <v>182.25800000000001</v>
       </c>
       <c r="V33">
-        <v>338.45400000000001</v>
+        <v>47.622</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>4.5759999999999996</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-159.85300000000001</v>
+        <v>-114.693</v>
       </c>
       <c r="AA33">
-        <v>169.381</v>
+        <v>45.014000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39816</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>131.32</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D34">
-        <v>1365.664</v>
+        <v>465.73500000000001</v>
       </c>
       <c r="E34">
-        <v>1172.566</v>
+        <v>468.928</v>
       </c>
       <c r="F34">
-        <v>1128.7090000000001</v>
+        <v>378.15</v>
       </c>
       <c r="G34">
-        <v>2318.8040000000001</v>
+        <v>858.87300000000005</v>
       </c>
       <c r="H34">
-        <v>6708.6360000000004</v>
+        <v>1880.9880000000001</v>
       </c>
       <c r="I34">
-        <v>293.53399999999999</v>
+        <v>93.667000000000002</v>
       </c>
       <c r="J34">
-        <v>438.80200000000002</v>
+        <v>111.37</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>962.69</v>
+        <v>341.22300000000001</v>
       </c>
       <c r="O34">
-        <v>1780.2470000000001</v>
+        <v>568.69299999999998</v>
       </c>
       <c r="P34">
-        <v>443.71600000000001</v>
+        <v>141.48599999999999</v>
       </c>
       <c r="Q34">
-        <v>-124.488</v>
+        <v>88.236000000000004</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39816</v>
       </c>
       <c r="S34">
-        <v>29200</v>
+        <v>7500</v>
       </c>
       <c r="T34">
-        <v>4928.3890000000001</v>
+        <v>1312.2950000000001</v>
       </c>
       <c r="U34">
-        <v>374.12599999999998</v>
+        <v>270.49400000000003</v>
       </c>
       <c r="V34">
-        <v>406.88900000000001</v>
+        <v>98.183000000000007</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-264.08300000000003</v>
+        <v>-27.231000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-48.78</v>
+        <v>76.942999999999998</v>
       </c>
       <c r="AA34">
-        <v>131.32</v>
+        <v>71.540000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39907</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>166.21899999999999</v>
+        <v>40.83</v>
       </c>
       <c r="D35">
-        <v>1389.877</v>
+        <v>384.017</v>
       </c>
       <c r="E35">
-        <v>1159.2149999999999</v>
+        <v>436.90699999999998</v>
       </c>
       <c r="F35">
-        <v>1136.673</v>
+        <v>326.791</v>
       </c>
       <c r="G35">
-        <v>2423.806</v>
+        <v>876.41200000000003</v>
       </c>
       <c r="H35">
-        <v>6998.5119999999997</v>
+        <v>1908.95</v>
       </c>
       <c r="I35">
-        <v>290.947</v>
+        <v>85.95</v>
       </c>
       <c r="J35">
-        <v>438.82299999999998</v>
+        <v>114.35899999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="N35">
-        <v>940.62400000000002</v>
+        <v>320.125</v>
       </c>
       <c r="O35">
-        <v>1869.3630000000001</v>
+        <v>553.22900000000004</v>
       </c>
       <c r="P35">
-        <v>581.17499999999995</v>
+        <v>144.649</v>
       </c>
       <c r="Q35">
-        <v>129.035</v>
+        <v>54.686</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39907</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5129.1490000000003</v>
+        <v>1355.721</v>
       </c>
       <c r="U35">
-        <v>503.161</v>
+        <v>325.18</v>
       </c>
       <c r="V35">
-        <v>317.26600000000002</v>
+        <v>97.825999999999993</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-6.9909999999999997</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="Y35">
-        <v>112.60599999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>19.151</v>
+        <v>26.247</v>
       </c>
       <c r="AA35">
-        <v>166.21899999999999</v>
+        <v>40.83</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39998</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>126.96899999999999</v>
+        <v>43.744999999999997</v>
       </c>
       <c r="D36">
-        <v>1431.0609999999999</v>
+        <v>395.74599999999998</v>
       </c>
       <c r="E36">
-        <v>1228.9849999999999</v>
+        <v>444.69900000000001</v>
       </c>
       <c r="F36">
-        <v>1162.3879999999999</v>
+        <v>336.91699999999997</v>
       </c>
       <c r="G36">
-        <v>2602.4699999999998</v>
+        <v>937.50099999999998</v>
       </c>
       <c r="H36">
-        <v>7276.3090000000002</v>
+        <v>1974.8910000000001</v>
       </c>
       <c r="I36">
-        <v>328.40499999999997</v>
+        <v>59.039000000000001</v>
       </c>
       <c r="J36">
-        <v>1038.53</v>
+        <v>122.94499999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1031.366</v>
+        <v>303.779</v>
       </c>
       <c r="O36">
-        <v>2559.04</v>
+        <v>546.63800000000003</v>
       </c>
       <c r="P36">
-        <v>1196.144</v>
+        <v>148.422</v>
       </c>
       <c r="Q36">
-        <v>199.76300000000001</v>
+        <v>28.738</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39998</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4717.2690000000002</v>
+        <v>1428.2529999999999</v>
       </c>
       <c r="U36">
-        <v>702.92399999999998</v>
+        <v>353.91800000000001</v>
       </c>
       <c r="V36">
-        <v>206.81</v>
+        <v>67.930000000000007</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>102.139</v>
+        <v>8.6959999999999997</v>
       </c>
       <c r="Y36">
-        <v>110.824</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>129.79499999999999</v>
+        <v>-7.39</v>
       </c>
       <c r="AA36">
-        <v>126.96899999999999</v>
+        <v>43.744999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>81.935000000000002</v>
+        <v>48.393999999999998</v>
       </c>
       <c r="D37">
-        <v>1429.4280000000001</v>
+        <v>402.51400000000001</v>
       </c>
       <c r="E37">
-        <v>1154.98</v>
+        <v>470.07100000000003</v>
       </c>
       <c r="F37">
-        <v>1157.6500000000001</v>
+        <v>339.93599999999998</v>
       </c>
       <c r="G37">
-        <v>2213.078</v>
+        <v>1012.609</v>
       </c>
       <c r="H37">
-        <v>6937.43</v>
+        <v>2051.7020000000002</v>
       </c>
       <c r="I37">
-        <v>275.916</v>
+        <v>53.835000000000001</v>
       </c>
       <c r="J37">
-        <v>1038.567</v>
+        <v>118.92700000000001</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1001.596</v>
+        <v>306.85000000000002</v>
       </c>
       <c r="O37">
-        <v>2526.163</v>
+        <v>545.89099999999996</v>
       </c>
       <c r="P37">
-        <v>1193.8240000000001</v>
+        <v>143.82300000000001</v>
       </c>
       <c r="Q37">
-        <v>-206.494</v>
+        <v>14.054</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4411.2669999999998</v>
+        <v>1505.8109999999999</v>
       </c>
       <c r="U37">
-        <v>496.43</v>
+        <v>367.97199999999998</v>
       </c>
       <c r="V37">
-        <v>351.44799999999998</v>
+        <v>73.402000000000001</v>
       </c>
       <c r="W37">
-        <v>-57.292999999999999</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-407.95299999999997</v>
+        <v>20.530999999999999</v>
       </c>
       <c r="Y37">
-        <v>103.17700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>40.332999999999998</v>
+        <v>-32.584000000000003</v>
       </c>
       <c r="AA37">
-        <v>81.935000000000002</v>
+        <v>48.393999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>154.33099999999999</v>
+        <v>60.496000000000002</v>
       </c>
       <c r="D38">
-        <v>1442.232</v>
+        <v>459.15499999999997</v>
       </c>
       <c r="E38">
-        <v>1139.595</v>
+        <v>461.411</v>
       </c>
       <c r="F38">
-        <v>1164.846</v>
+        <v>387.02199999999999</v>
       </c>
       <c r="G38">
-        <v>2096.6239999999998</v>
+        <v>1146.335</v>
       </c>
       <c r="H38">
-        <v>6894.6220000000003</v>
+        <v>2148.567</v>
       </c>
       <c r="I38">
-        <v>273.44</v>
+        <v>36.893000000000001</v>
       </c>
       <c r="J38">
-        <v>1038.3820000000001</v>
+        <v>95.506</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1027.4480000000001</v>
+        <v>358.10300000000001</v>
       </c>
       <c r="O38">
-        <v>2577.2939999999999</v>
+        <v>567.76900000000001</v>
       </c>
       <c r="P38">
-        <v>1189.537</v>
+        <v>120.52</v>
       </c>
       <c r="Q38">
-        <v>-54.587000000000003</v>
+        <v>-126.249</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="S38">
-        <v>27400</v>
+        <v>7600</v>
       </c>
       <c r="T38">
-        <v>4317.3280000000004</v>
+        <v>1580.798</v>
       </c>
       <c r="U38">
-        <v>441.84300000000002</v>
+        <v>241.72300000000001</v>
       </c>
       <c r="V38">
-        <v>437.57499999999999</v>
+        <v>108.133</v>
       </c>
       <c r="W38">
-        <v>-56.53</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-288.57499999999999</v>
+        <v>-16.273</v>
       </c>
       <c r="Y38">
-        <v>104.614</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>25.827999999999999</v>
+        <v>-155.56800000000001</v>
       </c>
       <c r="AA38">
-        <v>154.33099999999999</v>
+        <v>60.496000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40271</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>147.15899999999999</v>
+        <v>50.286000000000001</v>
       </c>
       <c r="D39">
-        <v>1411.741</v>
+        <v>423.99599999999998</v>
       </c>
       <c r="E39">
-        <v>1151.028</v>
+        <v>423.03500000000003</v>
       </c>
       <c r="F39">
-        <v>1157.325</v>
+        <v>363.25299999999999</v>
       </c>
       <c r="G39">
-        <v>1963.606</v>
+        <v>1139.943</v>
       </c>
       <c r="H39">
-        <v>6736.43</v>
+        <v>2163.703</v>
       </c>
       <c r="I39">
-        <v>295.95</v>
+        <v>41.075000000000003</v>
       </c>
       <c r="J39">
-        <v>1338.4169999999999</v>
+        <v>90.807000000000002</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-0.219</v>
       </c>
       <c r="N39">
-        <v>1018.486</v>
+        <v>304.59199999999998</v>
       </c>
       <c r="O39">
-        <v>2873.3510000000001</v>
+        <v>517.923</v>
       </c>
       <c r="P39">
-        <v>1518.335</v>
+        <v>117.80200000000001</v>
       </c>
       <c r="Q39">
-        <v>-156.43100000000001</v>
+        <v>-1.516</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40271</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3863.0790000000002</v>
+        <v>1645.78</v>
       </c>
       <c r="U39">
-        <v>285.41199999999998</v>
+        <v>240.20699999999999</v>
       </c>
       <c r="V39">
-        <v>283.50599999999997</v>
+        <v>105.503</v>
       </c>
       <c r="W39">
-        <v>-56.046999999999997</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-295.96100000000001</v>
+        <v>16.54</v>
       </c>
       <c r="Y39">
-        <v>137.91800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-3.0819999999999999</v>
+        <v>-53.131</v>
       </c>
       <c r="AA39">
-        <v>147.15899999999999</v>
+        <v>50.286000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40362</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>134.74799999999999</v>
+        <v>55.476999999999997</v>
       </c>
       <c r="D40">
-        <v>1330.3489999999999</v>
+        <v>447.47699999999998</v>
       </c>
       <c r="E40">
-        <v>1183.9880000000001</v>
+        <v>441.56700000000001</v>
       </c>
       <c r="F40">
-        <v>1118.386</v>
+        <v>377.79</v>
       </c>
       <c r="G40">
-        <v>2053.547</v>
+        <v>1185.99</v>
       </c>
       <c r="H40">
-        <v>6879.3410000000003</v>
+        <v>2245.6750000000002</v>
       </c>
       <c r="I40">
-        <v>261.54000000000002</v>
+        <v>47.484999999999999</v>
       </c>
       <c r="J40">
-        <v>1338.4670000000001</v>
+        <v>90.665000000000006</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1006.802</v>
+        <v>323.471</v>
       </c>
       <c r="O40">
-        <v>2861.3249999999998</v>
+        <v>537.95000000000005</v>
       </c>
       <c r="P40">
-        <v>1516.597</v>
+        <v>116.303</v>
       </c>
       <c r="Q40">
-        <v>-15.516999999999999</v>
+        <v>15.587999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40362</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4018.0160000000001</v>
+        <v>1707.7249999999999</v>
       </c>
       <c r="U40">
-        <v>269.89499999999998</v>
+        <v>255.79499999999999</v>
       </c>
       <c r="V40">
-        <v>258.58999999999997</v>
+        <v>110.238</v>
       </c>
       <c r="W40">
-        <v>-55.054000000000002</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-26.608000000000001</v>
+        <v>10.625999999999999</v>
       </c>
       <c r="Y40">
-        <v>134.13</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-7.8529999999999998</v>
+        <v>-56.274999999999999</v>
       </c>
       <c r="AA40">
-        <v>134.74799999999999</v>
+        <v>55.476999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40453</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>356.67599999999999</v>
+        <v>60.872</v>
       </c>
       <c r="D41">
-        <v>1368.673</v>
+        <v>454.72800000000001</v>
       </c>
       <c r="E41">
-        <v>1219.2270000000001</v>
+        <v>463.36799999999999</v>
       </c>
       <c r="F41">
-        <v>1136.7840000000001</v>
+        <v>383.53500000000003</v>
       </c>
       <c r="G41">
-        <v>2524.9589999999998</v>
+        <v>1137.7149999999999</v>
       </c>
       <c r="H41">
-        <v>7360.8119999999999</v>
+        <v>2358.3829999999998</v>
       </c>
       <c r="I41">
-        <v>256.44900000000001</v>
+        <v>56.670999999999999</v>
       </c>
       <c r="J41">
-        <v>1336.018</v>
+        <v>93.281999999999996</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1101.576</v>
+        <v>324.93400000000003</v>
       </c>
       <c r="O41">
-        <v>2954.5250000000001</v>
+        <v>549.02200000000005</v>
       </c>
       <c r="P41">
-        <v>1502.1590000000001</v>
+        <v>119.033</v>
       </c>
       <c r="Q41">
-        <v>149.25899999999999</v>
+        <v>-44.048000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40453</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4406.2870000000003</v>
+        <v>1809.3610000000001</v>
       </c>
       <c r="U41">
-        <v>419.154</v>
+        <v>211.74700000000001</v>
       </c>
       <c r="V41">
-        <v>381.94900000000001</v>
+        <v>118.956</v>
       </c>
       <c r="W41">
-        <v>-55.176000000000002</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-22.957999999999998</v>
+        <v>13.096</v>
       </c>
       <c r="Y41">
-        <v>125.14100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-287.13400000000001</v>
+        <v>-138.79300000000001</v>
       </c>
       <c r="AA41">
-        <v>356.67599999999999</v>
+        <v>60.872</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40544</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>70.637</v>
+      </c>
+      <c r="D42">
+        <v>491.56799999999998</v>
+      </c>
+      <c r="E42">
+        <v>476.90499999999997</v>
+      </c>
+      <c r="F42">
+        <v>405.28800000000001</v>
+      </c>
+      <c r="G42">
+        <v>1146.0609999999999</v>
+      </c>
+      <c r="H42">
+        <v>2422.79</v>
+      </c>
+      <c r="I42">
+        <v>65.034999999999997</v>
+      </c>
+      <c r="J42">
+        <v>67.923000000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>305.93200000000002</v>
+      </c>
+      <c r="O42">
+        <v>517.37300000000005</v>
+      </c>
+      <c r="P42">
+        <v>92.76</v>
+      </c>
+      <c r="Q42">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="R42">
+        <v>40544</v>
+      </c>
+      <c r="S42">
+        <v>8200</v>
+      </c>
+      <c r="T42">
+        <v>1905.4169999999999</v>
+      </c>
+      <c r="U42">
+        <v>214.511</v>
+      </c>
+      <c r="V42">
+        <v>121.747</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-5.4210000000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-64.141000000000005</v>
+      </c>
+      <c r="AA42">
+        <v>70.637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>64.555999999999997</v>
+      </c>
+      <c r="D43">
+        <v>481.37299999999999</v>
+      </c>
+      <c r="E43">
+        <v>469.18</v>
+      </c>
+      <c r="F43">
+        <v>400.98399999999998</v>
+      </c>
+      <c r="G43">
+        <v>1203.816</v>
+      </c>
+      <c r="H43">
+        <v>2561.5439999999999</v>
+      </c>
+      <c r="I43">
+        <v>68.159000000000006</v>
+      </c>
+      <c r="J43">
+        <v>74.313999999999993</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.114</v>
+      </c>
+      <c r="N43">
+        <v>314.82900000000001</v>
+      </c>
+      <c r="O43">
+        <v>538.85799999999995</v>
+      </c>
+      <c r="P43">
+        <v>101.435</v>
+      </c>
+      <c r="Q43">
+        <v>-29.943999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40635</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2022.6859999999999</v>
+      </c>
+      <c r="U43">
+        <v>184.56700000000001</v>
+      </c>
+      <c r="V43">
+        <v>126.501</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>31.145</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-145.19900000000001</v>
+      </c>
+      <c r="AA43">
+        <v>64.555999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>72.043999999999997</v>
+      </c>
+      <c r="D44">
+        <v>512.47500000000002</v>
+      </c>
+      <c r="E44">
+        <v>504.29</v>
+      </c>
+      <c r="F44">
+        <v>425.74099999999999</v>
+      </c>
+      <c r="G44">
+        <v>1313.3219999999999</v>
+      </c>
+      <c r="H44">
+        <v>2720.8069999999998</v>
+      </c>
+      <c r="I44">
+        <v>72.570999999999998</v>
+      </c>
+      <c r="J44">
+        <v>84.870999999999995</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>350.95100000000002</v>
+      </c>
+      <c r="O44">
+        <v>590.67100000000005</v>
+      </c>
+      <c r="P44">
+        <v>114.691</v>
+      </c>
+      <c r="Q44">
+        <v>29.489000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40726</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2130.136</v>
+      </c>
+      <c r="U44">
+        <v>214.05600000000001</v>
+      </c>
+      <c r="V44">
+        <v>122.127</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>24.164000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-36.478000000000002</v>
+      </c>
+      <c r="AA44">
+        <v>72.043999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>78.834999999999994</v>
+      </c>
+      <c r="D45">
+        <v>560.16499999999996</v>
+      </c>
+      <c r="E45">
+        <v>548.048</v>
+      </c>
+      <c r="F45">
+        <v>451.17599999999999</v>
+      </c>
+      <c r="G45">
+        <v>1423.1320000000001</v>
+      </c>
+      <c r="H45">
+        <v>2843.5680000000002</v>
+      </c>
+      <c r="I45">
+        <v>79.344999999999999</v>
+      </c>
+      <c r="J45">
+        <v>99.281000000000006</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>377.50200000000001</v>
+      </c>
+      <c r="O45">
+        <v>636.21400000000006</v>
+      </c>
+      <c r="P45">
+        <v>133.84100000000001</v>
+      </c>
+      <c r="Q45">
+        <v>17.138000000000002</v>
+      </c>
+      <c r="R45">
+        <v>40817</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2207.3539999999998</v>
+      </c>
+      <c r="U45">
+        <v>231.19399999999999</v>
+      </c>
+      <c r="V45">
+        <v>129.17699999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>13.669</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-74.063999999999993</v>
+      </c>
+      <c r="AA45">
+        <v>78.834999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>91.191999999999993</v>
+      </c>
+      <c r="D46">
+        <v>604.44799999999998</v>
+      </c>
+      <c r="E46">
+        <v>563.20899999999995</v>
+      </c>
+      <c r="F46">
+        <v>483.58</v>
+      </c>
+      <c r="G46">
+        <v>1502.3130000000001</v>
+      </c>
+      <c r="H46">
+        <v>3000.3580000000002</v>
+      </c>
+      <c r="I46">
+        <v>85.545000000000002</v>
+      </c>
+      <c r="J46">
+        <v>86.820999999999998</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>438.72</v>
+      </c>
+      <c r="O46">
+        <v>689.55700000000002</v>
+      </c>
+      <c r="P46">
+        <v>126.54300000000001</v>
+      </c>
+      <c r="Q46">
+        <v>11.952</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>9900</v>
+      </c>
+      <c r="T46">
+        <v>2310.8009999999999</v>
+      </c>
+      <c r="U46">
+        <v>243.14599999999999</v>
+      </c>
+      <c r="V46">
+        <v>168.489</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-20.125</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-35.652000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>91.191999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>88.707999999999998</v>
+      </c>
+      <c r="D47">
+        <v>629.72400000000005</v>
+      </c>
+      <c r="E47">
+        <v>535.50400000000002</v>
+      </c>
+      <c r="F47">
+        <v>483.20400000000001</v>
+      </c>
+      <c r="G47">
+        <v>1591.471</v>
+      </c>
+      <c r="H47">
+        <v>3139.5590000000002</v>
+      </c>
+      <c r="I47">
+        <v>113.568</v>
+      </c>
+      <c r="J47">
+        <v>107.85599999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.97</v>
+      </c>
+      <c r="N47">
+        <v>443.52</v>
+      </c>
+      <c r="O47">
+        <v>695.70699999999999</v>
+      </c>
+      <c r="P47">
+        <v>152.63399999999999</v>
+      </c>
+      <c r="Q47">
+        <v>38.052</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2443.8519999999999</v>
+      </c>
+      <c r="U47">
+        <v>281.19799999999998</v>
+      </c>
+      <c r="V47">
+        <v>162.708</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>26.311</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-100.101</v>
+      </c>
+      <c r="AA47">
+        <v>88.707999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>97.828999999999994</v>
+      </c>
+      <c r="D48">
+        <v>621.34100000000001</v>
+      </c>
+      <c r="E48">
+        <v>492.529</v>
+      </c>
+      <c r="F48">
+        <v>489.858</v>
+      </c>
+      <c r="G48">
+        <v>1660.7809999999999</v>
+      </c>
+      <c r="H48">
+        <v>3299.0439999999999</v>
+      </c>
+      <c r="I48">
+        <v>123.869</v>
+      </c>
+      <c r="J48">
+        <v>125.95099999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>465.12599999999998</v>
+      </c>
+      <c r="O48">
+        <v>730.524</v>
+      </c>
+      <c r="P48">
+        <v>176.08</v>
+      </c>
+      <c r="Q48">
+        <v>21.59</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2568.52</v>
+      </c>
+      <c r="U48">
+        <v>302.78800000000001</v>
+      </c>
+      <c r="V48">
+        <v>182.839</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>27.396000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-108.348</v>
+      </c>
+      <c r="AA48">
+        <v>97.828999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>98.887</v>
+      </c>
+      <c r="D49">
+        <v>662.20600000000002</v>
+      </c>
+      <c r="E49">
+        <v>542.41499999999996</v>
+      </c>
+      <c r="F49">
+        <v>526.904</v>
+      </c>
+      <c r="G49">
+        <v>1745.78</v>
+      </c>
+      <c r="H49">
+        <v>3470.4560000000001</v>
+      </c>
+      <c r="I49">
+        <v>134.77500000000001</v>
+      </c>
+      <c r="J49">
+        <v>141.678</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>496.00700000000001</v>
+      </c>
+      <c r="O49">
+        <v>773.779</v>
+      </c>
+      <c r="P49">
+        <v>196.65700000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-14.686999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2696.6770000000001</v>
+      </c>
+      <c r="U49">
+        <v>288.101</v>
+      </c>
+      <c r="V49">
+        <v>182.21299999999999</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>8.6539999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-127.991</v>
+      </c>
+      <c r="AA49">
+        <v>98.887</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>111.80800000000001</v>
+      </c>
+      <c r="D50">
+        <v>696.85699999999997</v>
+      </c>
+      <c r="E50">
+        <v>577.84799999999996</v>
+      </c>
+      <c r="F50">
+        <v>557.27300000000002</v>
+      </c>
+      <c r="G50">
+        <v>1790.5060000000001</v>
+      </c>
+      <c r="H50">
+        <v>3704.4679999999998</v>
+      </c>
+      <c r="I50">
+        <v>141.21199999999999</v>
+      </c>
+      <c r="J50">
+        <v>136.55699999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>580.11199999999997</v>
+      </c>
+      <c r="O50">
+        <v>870.81799999999998</v>
+      </c>
+      <c r="P50">
+        <v>196.13900000000001</v>
+      </c>
+      <c r="Q50">
+        <v>29.018999999999998</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>11900</v>
+      </c>
+      <c r="T50">
+        <v>2833.65</v>
+      </c>
+      <c r="U50">
+        <v>317.12</v>
+      </c>
+      <c r="V50">
+        <v>180.554</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>3.673</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-18.163</v>
+      </c>
+      <c r="AA50">
+        <v>111.80800000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>110.04</v>
+      </c>
+      <c r="D51">
+        <v>665.45799999999997</v>
+      </c>
+      <c r="E51">
+        <v>512.07799999999997</v>
+      </c>
+      <c r="F51">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="G51">
+        <v>1727.56</v>
+      </c>
+      <c r="H51">
+        <v>3765.1489999999999</v>
+      </c>
+      <c r="I51">
+        <v>148.87700000000001</v>
+      </c>
+      <c r="J51">
+        <v>135.47</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-9.75</v>
+      </c>
+      <c r="N51">
+        <v>572.423</v>
+      </c>
+      <c r="O51">
+        <v>865.90899999999999</v>
+      </c>
+      <c r="P51">
+        <v>182.375</v>
+      </c>
+      <c r="Q51">
+        <v>-35.661999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2899.24</v>
+      </c>
+      <c r="U51">
+        <v>281.45800000000003</v>
+      </c>
+      <c r="V51">
+        <v>213.648</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-56.430999999999997</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-16.606000000000002</v>
+      </c>
+      <c r="AA51">
+        <v>110.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>112.907</v>
+      </c>
+      <c r="D52">
+        <v>687.15</v>
+      </c>
+      <c r="E52">
+        <v>527.89599999999996</v>
+      </c>
+      <c r="F52">
+        <v>581.76099999999997</v>
+      </c>
+      <c r="G52">
+        <v>1713.296</v>
+      </c>
+      <c r="H52">
+        <v>3843.9409999999998</v>
+      </c>
+      <c r="I52">
+        <v>169.73500000000001</v>
+      </c>
+      <c r="J52">
+        <v>132.971</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>605.44000000000005</v>
+      </c>
+      <c r="O52">
+        <v>892.93399999999997</v>
+      </c>
+      <c r="P52">
+        <v>181.899</v>
+      </c>
+      <c r="Q52">
+        <v>-10.694000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2951.0070000000001</v>
+      </c>
+      <c r="U52">
+        <v>270.76400000000001</v>
+      </c>
+      <c r="V52">
+        <v>176.50700000000001</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-56.784999999999997</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>12.884</v>
+      </c>
+      <c r="AA52">
+        <v>112.907</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>115.34399999999999</v>
+      </c>
+      <c r="D53">
+        <v>711.15200000000004</v>
+      </c>
+      <c r="E53">
+        <v>529.303</v>
+      </c>
+      <c r="F53">
+        <v>608.25300000000004</v>
+      </c>
+      <c r="G53">
+        <v>1701.0940000000001</v>
+      </c>
+      <c r="H53">
+        <v>3966.37</v>
+      </c>
+      <c r="I53">
+        <v>147.01599999999999</v>
+      </c>
+      <c r="J53">
+        <v>131.03</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>584.44000000000005</v>
+      </c>
+      <c r="O53">
+        <v>888.98</v>
+      </c>
+      <c r="P53">
+        <v>182.90199999999999</v>
+      </c>
+      <c r="Q53">
+        <v>16.756</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3077.39</v>
+      </c>
+      <c r="U53">
+        <v>287.52</v>
+      </c>
+      <c r="V53">
+        <v>164.23</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-9.2360000000000007</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-3.1909999999999998</v>
+      </c>
+      <c r="AA53">
+        <v>115.34399999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>60.063000000000002</v>
+      </c>
+      <c r="D54">
+        <v>776.87900000000002</v>
+      </c>
+      <c r="E54">
+        <v>582.92600000000004</v>
+      </c>
+      <c r="F54">
+        <v>653.21199999999999</v>
+      </c>
+      <c r="G54">
+        <v>1761.7080000000001</v>
+      </c>
+      <c r="H54">
+        <v>4098.3639999999996</v>
+      </c>
+      <c r="I54">
+        <v>145.01900000000001</v>
+      </c>
+      <c r="J54">
+        <v>111.717</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>640.43200000000002</v>
+      </c>
+      <c r="O54">
+        <v>930.7</v>
+      </c>
+      <c r="P54">
+        <v>165.82400000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-85.143000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>14200</v>
+      </c>
+      <c r="T54">
+        <v>3167.6640000000002</v>
+      </c>
+      <c r="U54">
+        <v>202.37700000000001</v>
+      </c>
+      <c r="V54">
+        <v>141.47999999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-29.308</v>
+      </c>
+      <c r="AA54">
+        <v>60.063000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>119.526</v>
+      </c>
+      <c r="D55">
+        <v>764.11599999999999</v>
+      </c>
+      <c r="E55">
+        <v>564.08600000000001</v>
+      </c>
+      <c r="F55">
+        <v>655.66200000000003</v>
+      </c>
+      <c r="G55">
+        <v>1915.181</v>
+      </c>
+      <c r="H55">
+        <v>4191.348</v>
+      </c>
+      <c r="I55">
+        <v>125.741</v>
+      </c>
+      <c r="J55">
+        <v>104.827</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="N55">
+        <v>611.66700000000003</v>
+      </c>
+      <c r="O55">
+        <v>944.95100000000002</v>
+      </c>
+      <c r="P55">
+        <v>160.48400000000001</v>
+      </c>
+      <c r="Q55">
+        <v>17.550999999999998</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3246.3969999999999</v>
+      </c>
+      <c r="U55">
+        <v>219.928</v>
+      </c>
+      <c r="V55">
+        <v>155.78700000000001</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-1.7170000000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-20.079000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>119.526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>129.03299999999999</v>
+      </c>
+      <c r="D56">
+        <v>822.73</v>
+      </c>
+      <c r="E56">
+        <v>614.92999999999995</v>
+      </c>
+      <c r="F56">
+        <v>689.39300000000003</v>
+      </c>
+      <c r="G56">
+        <v>1903.269</v>
+      </c>
+      <c r="H56">
+        <v>4265.2749999999996</v>
+      </c>
+      <c r="I56">
+        <v>148.85400000000001</v>
+      </c>
+      <c r="J56">
+        <v>96.084000000000003</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>672.52200000000005</v>
+      </c>
+      <c r="O56">
+        <v>1005.506</v>
+      </c>
+      <c r="P56">
+        <v>155.37100000000001</v>
+      </c>
+      <c r="Q56">
+        <v>95.331999999999994</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3259.7689999999998</v>
+      </c>
+      <c r="U56">
+        <v>315.26</v>
+      </c>
+      <c r="V56">
+        <v>248.27099999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-129.72300000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>91.468999999999994</v>
+      </c>
+      <c r="AA56">
+        <v>129.03299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>129.00200000000001</v>
+      </c>
+      <c r="D57">
+        <v>817.41300000000001</v>
+      </c>
+      <c r="E57">
+        <v>617.20399999999995</v>
+      </c>
+      <c r="F57">
+        <v>700.08399999999995</v>
+      </c>
+      <c r="G57">
+        <v>2235.4769999999999</v>
+      </c>
+      <c r="H57">
+        <v>4392.6379999999999</v>
+      </c>
+      <c r="I57">
+        <v>169.227</v>
+      </c>
+      <c r="J57">
+        <v>86.756</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>671.12</v>
+      </c>
+      <c r="O57">
+        <v>996.428</v>
+      </c>
+      <c r="P57">
+        <v>146.798</v>
+      </c>
+      <c r="Q57">
+        <v>181.23400000000001</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3396.21</v>
+      </c>
+      <c r="U57">
+        <v>496.49400000000003</v>
+      </c>
+      <c r="V57">
+        <v>219.52099999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>82.734999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>129.00200000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>147.87200000000001</v>
+      </c>
+      <c r="D58">
+        <v>908.55799999999999</v>
+      </c>
+      <c r="E58">
+        <v>672.77800000000002</v>
+      </c>
+      <c r="F58">
+        <v>753.18700000000001</v>
+      </c>
+      <c r="G58">
+        <v>2348.7860000000001</v>
+      </c>
+      <c r="H58">
+        <v>4530.5649999999996</v>
+      </c>
+      <c r="I58">
+        <v>160.285</v>
+      </c>
+      <c r="J58">
+        <v>62.868000000000002</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>634.31500000000005</v>
+      </c>
+      <c r="O58">
+        <v>964.59699999999998</v>
+      </c>
+      <c r="P58">
+        <v>130.328</v>
+      </c>
+      <c r="Q58">
+        <v>138.709</v>
+      </c>
+      <c r="R58">
+        <v>42007</v>
+      </c>
+      <c r="S58">
+        <v>15800</v>
+      </c>
+      <c r="T58">
+        <v>3565.9679999999998</v>
+      </c>
+      <c r="U58">
+        <v>635.20299999999997</v>
+      </c>
+      <c r="V58">
+        <v>223.44800000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>11.054</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>36.685000000000002</v>
+      </c>
+      <c r="AA58">
+        <v>147.87200000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42098</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>110.934</v>
+      </c>
+      <c r="D59">
+        <v>977.93899999999996</v>
+      </c>
+      <c r="E59">
+        <v>940.57100000000003</v>
+      </c>
+      <c r="F59">
+        <v>827.42899999999997</v>
+      </c>
+      <c r="G59">
+        <v>1911.2809999999999</v>
+      </c>
+      <c r="H59">
+        <v>5352.6049999999996</v>
+      </c>
+      <c r="I59">
+        <v>195.71100000000001</v>
+      </c>
+      <c r="J59">
+        <v>564.33900000000006</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>792.29899999999998</v>
+      </c>
+      <c r="O59">
+        <v>1642.184</v>
+      </c>
+      <c r="P59">
+        <v>626.16700000000003</v>
+      </c>
+      <c r="Q59">
+        <v>-244.86799999999999</v>
+      </c>
+      <c r="R59">
+        <v>42098</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3710.4209999999998</v>
+      </c>
+      <c r="U59">
+        <v>390.33499999999998</v>
+      </c>
+      <c r="V59">
+        <v>214.24700000000001</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>553.18399999999997</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>514.82899999999995</v>
+      </c>
+      <c r="AA59">
+        <v>110.934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>115.038</v>
+      </c>
+      <c r="D60">
+        <v>1107.9359999999999</v>
+      </c>
+      <c r="E60">
+        <v>1003.143</v>
+      </c>
+      <c r="F60">
+        <v>933.67499999999995</v>
+      </c>
+      <c r="G60">
+        <v>1883.7070000000001</v>
+      </c>
+      <c r="H60">
+        <v>5484.8329999999996</v>
+      </c>
+      <c r="I60">
+        <v>208.73400000000001</v>
+      </c>
+      <c r="J60">
+        <v>567.31200000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>777.851</v>
+      </c>
+      <c r="O60">
+        <v>1620.84</v>
+      </c>
+      <c r="P60">
+        <v>622.76</v>
+      </c>
+      <c r="Q60">
+        <v>-96.355999999999995</v>
+      </c>
+      <c r="R60">
+        <v>42189</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3863.9929999999999</v>
+      </c>
+      <c r="U60">
+        <v>293.97899999999998</v>
+      </c>
+      <c r="V60">
+        <v>108.664</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-66.701999999999998</v>
+      </c>
+      <c r="AA60">
+        <v>115.038</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>147.28200000000001</v>
+      </c>
+      <c r="D61">
+        <v>1108.962</v>
+      </c>
+      <c r="E61">
+        <v>1053.134</v>
+      </c>
+      <c r="F61">
+        <v>937.30399999999997</v>
+      </c>
+      <c r="G61">
+        <v>1803.7619999999999</v>
+      </c>
+      <c r="H61">
+        <v>5522.9250000000002</v>
+      </c>
+      <c r="I61">
+        <v>207.887</v>
+      </c>
+      <c r="J61">
+        <v>572.82799999999997</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>839.33500000000004</v>
+      </c>
+      <c r="O61">
+        <v>1685.6</v>
+      </c>
+      <c r="P61">
+        <v>630.66899999999998</v>
+      </c>
+      <c r="Q61">
+        <v>-32.222000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42280</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3837.3249999999998</v>
+      </c>
+      <c r="U61">
+        <v>261.75700000000001</v>
+      </c>
+      <c r="V61">
+        <v>271.52</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-184.80199999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>54.505000000000003</v>
+      </c>
+      <c r="AA61">
+        <v>147.28200000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42371</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>166.108</v>
+      </c>
+      <c r="D62">
+        <v>1157.6279999999999</v>
+      </c>
+      <c r="E62">
+        <v>1034.0840000000001</v>
+      </c>
+      <c r="F62">
+        <v>976.07799999999997</v>
+      </c>
+      <c r="G62">
+        <v>1827.8330000000001</v>
+      </c>
+      <c r="H62">
+        <v>5561.9840000000004</v>
+      </c>
+      <c r="I62">
+        <v>215.51</v>
+      </c>
+      <c r="J62">
+        <v>512.73400000000004</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>777.86599999999999</v>
+      </c>
+      <c r="O62">
+        <v>1691.6</v>
+      </c>
+      <c r="P62">
+        <v>605.15</v>
+      </c>
+      <c r="Q62">
+        <v>140.36500000000001</v>
+      </c>
+      <c r="R62">
+        <v>42371</v>
+      </c>
+      <c r="S62">
+        <v>22200</v>
+      </c>
+      <c r="T62">
+        <v>3870.384</v>
+      </c>
+      <c r="U62">
+        <v>402.12200000000001</v>
+      </c>
+      <c r="V62">
+        <v>353.09500000000003</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-152.053</v>
+      </c>
+      <c r="Y62">
+        <v>50.619</v>
+      </c>
+      <c r="Z62">
+        <v>217.774</v>
+      </c>
+      <c r="AA62">
+        <v>166.108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>150.36000000000001</v>
+      </c>
+      <c r="D63">
+        <v>1118.992</v>
+      </c>
+      <c r="E63">
+        <v>941.79200000000003</v>
+      </c>
+      <c r="F63">
+        <v>962.54200000000003</v>
+      </c>
+      <c r="G63">
+        <v>1728.6379999999999</v>
+      </c>
+      <c r="H63">
+        <v>5594.4920000000002</v>
+      </c>
+      <c r="I63">
+        <v>209.38800000000001</v>
+      </c>
+      <c r="J63">
+        <v>553.67999999999995</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>775.93200000000002</v>
+      </c>
+      <c r="O63">
+        <v>1678.165</v>
+      </c>
+      <c r="P63">
+        <v>595.44200000000001</v>
+      </c>
+      <c r="Q63">
+        <v>-106.533</v>
+      </c>
+      <c r="R63">
+        <v>42462</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3916.3270000000002</v>
+      </c>
+      <c r="U63">
+        <v>295.589</v>
+      </c>
+      <c r="V63">
+        <v>336.20499999999998</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-140.054</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-125.271</v>
+      </c>
+      <c r="AA63">
+        <v>150.36000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>166.45400000000001</v>
+      </c>
+      <c r="D64">
+        <v>1193.855</v>
+      </c>
+      <c r="E64">
+        <v>983.31</v>
+      </c>
+      <c r="F64">
+        <v>1010.4059999999999</v>
+      </c>
+      <c r="G64">
+        <v>1933.7080000000001</v>
+      </c>
+      <c r="H64">
+        <v>5779.5510000000004</v>
+      </c>
+      <c r="I64">
+        <v>242.12200000000001</v>
+      </c>
+      <c r="J64">
+        <v>546.17399999999998</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>815.09299999999996</v>
+      </c>
+      <c r="O64">
+        <v>1725.575</v>
+      </c>
+      <c r="P64">
+        <v>584.58199999999999</v>
+      </c>
+      <c r="Q64">
+        <v>81.992999999999995</v>
+      </c>
+      <c r="R64">
+        <v>42553</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4053.9760000000001</v>
+      </c>
+      <c r="U64">
+        <v>377.58199999999999</v>
+      </c>
+      <c r="V64">
+        <v>260.42899999999997</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-40.322000000000003</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>67.421000000000006</v>
+      </c>
+      <c r="AA64">
+        <v>166.45400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>169.97900000000001</v>
+      </c>
+      <c r="D65">
+        <v>1162.337</v>
+      </c>
+      <c r="E65">
+        <v>985.16399999999999</v>
+      </c>
+      <c r="F65">
+        <v>1001.587</v>
+      </c>
+      <c r="G65">
+        <v>1998.3150000000001</v>
+      </c>
+      <c r="H65">
+        <v>5948.527</v>
+      </c>
+      <c r="I65">
+        <v>219.53100000000001</v>
+      </c>
+      <c r="J65">
+        <v>535.91999999999996</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>828.06</v>
+      </c>
+      <c r="O65">
+        <v>1670.492</v>
+      </c>
+      <c r="P65">
+        <v>572.53899999999999</v>
+      </c>
+      <c r="Q65">
+        <v>53.914999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42644</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4278.0349999999999</v>
+      </c>
+      <c r="U65">
+        <v>431.49700000000001</v>
+      </c>
+      <c r="V65">
+        <v>311.06400000000002</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-67.858999999999995</v>
+      </c>
+      <c r="AA65">
+        <v>169.97900000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>149.691</v>
+      </c>
+      <c r="D66">
+        <v>1232.7439999999999</v>
+      </c>
+      <c r="E66">
+        <v>944.94299999999998</v>
+      </c>
+      <c r="F66">
+        <v>1042.8219999999999</v>
+      </c>
+      <c r="G66">
+        <v>1619.3610000000001</v>
+      </c>
+      <c r="H66">
+        <v>5629.9629999999997</v>
+      </c>
+      <c r="I66">
+        <v>238.13399999999999</v>
+      </c>
+      <c r="J66">
+        <v>513.30499999999995</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>845.40099999999995</v>
+      </c>
+      <c r="O66">
+        <v>1702.0160000000001</v>
+      </c>
+      <c r="P66">
+        <v>563.74900000000002</v>
+      </c>
+      <c r="Q66">
+        <v>-260.63600000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>24400</v>
+      </c>
+      <c r="T66">
+        <v>3927.9470000000001</v>
+      </c>
+      <c r="U66">
+        <v>170.86099999999999</v>
+      </c>
+      <c r="V66">
+        <v>337.93900000000002</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-496.892</v>
+      </c>
+      <c r="Y66">
+        <v>24.247</v>
+      </c>
+      <c r="Z66">
+        <v>107.53</v>
+      </c>
+      <c r="AA66">
+        <v>149.691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>173.21299999999999</v>
+      </c>
+      <c r="D67">
+        <v>1260.4860000000001</v>
+      </c>
+      <c r="E67">
+        <v>986.35400000000004</v>
+      </c>
+      <c r="F67">
+        <v>1061.4929999999999</v>
+      </c>
+      <c r="G67">
+        <v>1826.11</v>
+      </c>
+      <c r="H67">
+        <v>5803.2079999999996</v>
+      </c>
+      <c r="I67">
+        <v>207.001</v>
+      </c>
+      <c r="J67">
+        <v>532.74699999999996</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>833.53899999999999</v>
+      </c>
+      <c r="O67">
+        <v>1690.3320000000001</v>
+      </c>
+      <c r="P67">
+        <v>550.14499999999998</v>
+      </c>
+      <c r="Q67">
+        <v>207.59100000000001</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4112.8760000000002</v>
+      </c>
+      <c r="U67">
+        <v>378.452</v>
+      </c>
+      <c r="V67">
+        <v>303.58499999999998</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>4.3689999999999998</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>61.69</v>
+      </c>
+      <c r="AA67">
+        <v>173.21299999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>179.68299999999999</v>
+      </c>
+      <c r="D68">
+        <v>1291.9939999999999</v>
+      </c>
+      <c r="E68">
+        <v>1036.98</v>
+      </c>
+      <c r="F68">
+        <v>1068.931</v>
+      </c>
+      <c r="G68">
+        <v>2012.2260000000001</v>
+      </c>
+      <c r="H68">
+        <v>6058.6409999999996</v>
+      </c>
+      <c r="I68">
+        <v>259.09199999999998</v>
+      </c>
+      <c r="J68">
+        <v>524.92100000000005</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>841.70899999999995</v>
+      </c>
+      <c r="O68">
+        <v>1703.1379999999999</v>
+      </c>
+      <c r="P68">
+        <v>543.41499999999996</v>
+      </c>
+      <c r="Q68">
+        <v>81.977999999999994</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4355.5029999999997</v>
+      </c>
+      <c r="U68">
+        <v>460.43</v>
+      </c>
+      <c r="V68">
+        <v>292.24299999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>23.280999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-56.819000000000003</v>
+      </c>
+      <c r="AA68">
+        <v>179.68299999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>177.42400000000001</v>
+      </c>
+      <c r="D69">
+        <v>1276.0070000000001</v>
+      </c>
+      <c r="E69">
+        <v>1020.707</v>
+      </c>
+      <c r="F69">
+        <v>1073.1030000000001</v>
+      </c>
+      <c r="G69">
+        <v>2231.5039999999999</v>
+      </c>
+      <c r="H69">
+        <v>6232.2560000000003</v>
+      </c>
+      <c r="I69">
+        <v>204.32300000000001</v>
+      </c>
+      <c r="J69">
+        <v>521.01599999999996</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>806.86500000000001</v>
+      </c>
+      <c r="O69">
+        <v>1668.2529999999999</v>
+      </c>
+      <c r="P69">
+        <v>535.00400000000002</v>
+      </c>
+      <c r="Q69">
+        <v>112.624</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4564.0029999999997</v>
+      </c>
+      <c r="U69">
+        <v>573.05399999999997</v>
+      </c>
+      <c r="V69">
+        <v>362.93700000000001</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-103.96899999999999</v>
+      </c>
+      <c r="AA69">
+        <v>177.42400000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>336.65800000000002</v>
+      </c>
+      <c r="D70">
+        <v>1313.7850000000001</v>
+      </c>
+      <c r="E70">
+        <v>1042.7809999999999</v>
+      </c>
+      <c r="F70">
+        <v>1084.654</v>
+      </c>
+      <c r="G70">
+        <v>2380.2269999999999</v>
+      </c>
+      <c r="H70">
+        <v>6469.3109999999997</v>
+      </c>
+      <c r="I70">
+        <v>218.99600000000001</v>
+      </c>
+      <c r="J70">
+        <v>513.64700000000005</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>789.59500000000003</v>
+      </c>
+      <c r="O70">
+        <v>1683.963</v>
+      </c>
+      <c r="P70">
+        <v>526.71500000000003</v>
+      </c>
+      <c r="Q70">
+        <v>-202.131</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>26000</v>
+      </c>
+      <c r="T70">
+        <v>4785.348</v>
+      </c>
+      <c r="U70">
+        <v>370.923</v>
+      </c>
+      <c r="V70">
+        <v>348.91</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-138.62299999999999</v>
+      </c>
+      <c r="Y70">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="Z70">
+        <v>-240.876</v>
+      </c>
+      <c r="AA70">
+        <v>336.65800000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>160.001</v>
+      </c>
+      <c r="D71">
+        <v>1292.8610000000001</v>
+      </c>
+      <c r="E71">
+        <v>1040.741</v>
+      </c>
+      <c r="F71">
+        <v>1061.5830000000001</v>
+      </c>
+      <c r="G71">
+        <v>2365.2150000000001</v>
+      </c>
+      <c r="H71">
+        <v>6511.6379999999999</v>
+      </c>
+      <c r="I71">
+        <v>210.04599999999999</v>
+      </c>
+      <c r="J71">
+        <v>438.67200000000003</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-75</v>
+      </c>
+      <c r="N71">
+        <v>802.94200000000001</v>
+      </c>
+      <c r="O71">
+        <v>1611.144</v>
+      </c>
+      <c r="P71">
+        <v>445.577</v>
+      </c>
+      <c r="Q71">
+        <v>42.475999999999999</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4900.4939999999997</v>
+      </c>
+      <c r="U71">
+        <v>413.399</v>
+      </c>
+      <c r="V71">
+        <v>408.96499999999997</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-154.31100000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Z71">
+        <v>-49.713000000000001</v>
+      </c>
+      <c r="AA71">
+        <v>160.001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>169.357</v>
+      </c>
+      <c r="D72">
+        <v>1367.7270000000001</v>
+      </c>
+      <c r="E72">
+        <v>1151.8599999999999</v>
+      </c>
+      <c r="F72">
+        <v>1128.944</v>
+      </c>
+      <c r="G72">
+        <v>2379.3919999999998</v>
+      </c>
+      <c r="H72">
+        <v>6528.9989999999998</v>
+      </c>
+      <c r="I72">
+        <v>284.20299999999997</v>
+      </c>
+      <c r="J72">
+        <v>438.76</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>835.68700000000001</v>
+      </c>
+      <c r="O72">
+        <v>1650.145</v>
+      </c>
+      <c r="P72">
+        <v>440.91500000000002</v>
+      </c>
+      <c r="Q72">
+        <v>97.569000000000003</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4878.8540000000003</v>
+      </c>
+      <c r="U72">
+        <v>510.96800000000002</v>
+      </c>
+      <c r="V72">
+        <v>299.70100000000002</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-195.96899999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>186.84899999999999</v>
+      </c>
+      <c r="AA72">
+        <v>169.357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>169.381</v>
+      </c>
+      <c r="D73">
+        <v>1340.0730000000001</v>
+      </c>
+      <c r="E73">
+        <v>1210.616</v>
+      </c>
+      <c r="F73">
+        <v>1109.741</v>
+      </c>
+      <c r="G73">
+        <v>2386.81</v>
+      </c>
+      <c r="H73">
+        <v>6785.4</v>
+      </c>
+      <c r="I73">
+        <v>258.43099999999998</v>
+      </c>
+      <c r="J73">
+        <v>438.78100000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>907.02499999999998</v>
+      </c>
+      <c r="O73">
+        <v>1719.67</v>
+      </c>
+      <c r="P73">
+        <v>441.09899999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-12.353999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5065.7299999999996</v>
+      </c>
+      <c r="U73">
+        <v>498.61399999999998</v>
+      </c>
+      <c r="V73">
+        <v>338.45400000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>4.5759999999999996</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-159.85300000000001</v>
+      </c>
+      <c r="AA73">
+        <v>169.381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>131.32</v>
+      </c>
+      <c r="D74">
+        <v>1365.664</v>
+      </c>
+      <c r="E74">
+        <v>1172.566</v>
+      </c>
+      <c r="F74">
+        <v>1128.7090000000001</v>
+      </c>
+      <c r="G74">
+        <v>2318.8040000000001</v>
+      </c>
+      <c r="H74">
+        <v>6708.6360000000004</v>
+      </c>
+      <c r="I74">
+        <v>293.53399999999999</v>
+      </c>
+      <c r="J74">
+        <v>438.80200000000002</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>962.69</v>
+      </c>
+      <c r="O74">
+        <v>1780.2470000000001</v>
+      </c>
+      <c r="P74">
+        <v>443.71600000000001</v>
+      </c>
+      <c r="Q74">
+        <v>-124.488</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>29200</v>
+      </c>
+      <c r="T74">
+        <v>4928.3890000000001</v>
+      </c>
+      <c r="U74">
+        <v>374.12599999999998</v>
+      </c>
+      <c r="V74">
+        <v>406.88900000000001</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-264.08300000000003</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-48.78</v>
+      </c>
+      <c r="AA74">
+        <v>131.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>166.21899999999999</v>
+      </c>
+      <c r="D75">
+        <v>1389.877</v>
+      </c>
+      <c r="E75">
+        <v>1159.2149999999999</v>
+      </c>
+      <c r="F75">
+        <v>1136.673</v>
+      </c>
+      <c r="G75">
+        <v>2423.806</v>
+      </c>
+      <c r="H75">
+        <v>6998.5119999999997</v>
+      </c>
+      <c r="I75">
+        <v>290.947</v>
+      </c>
+      <c r="J75">
+        <v>438.82299999999998</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>940.62400000000002</v>
+      </c>
+      <c r="O75">
+        <v>1869.3630000000001</v>
+      </c>
+      <c r="P75">
+        <v>581.17499999999995</v>
+      </c>
+      <c r="Q75">
+        <v>129.035</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5129.1490000000003</v>
+      </c>
+      <c r="U75">
+        <v>503.161</v>
+      </c>
+      <c r="V75">
+        <v>317.26600000000002</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-6.9909999999999997</v>
+      </c>
+      <c r="Y75">
+        <v>112.60599999999999</v>
+      </c>
+      <c r="Z75">
+        <v>19.151</v>
+      </c>
+      <c r="AA75">
+        <v>166.21899999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>126.96899999999999</v>
+      </c>
+      <c r="D76">
+        <v>1431.0609999999999</v>
+      </c>
+      <c r="E76">
+        <v>1228.9849999999999</v>
+      </c>
+      <c r="F76">
+        <v>1162.3879999999999</v>
+      </c>
+      <c r="G76">
+        <v>2602.4699999999998</v>
+      </c>
+      <c r="H76">
+        <v>7276.3090000000002</v>
+      </c>
+      <c r="I76">
+        <v>328.40499999999997</v>
+      </c>
+      <c r="J76">
+        <v>1038.53</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1031.366</v>
+      </c>
+      <c r="O76">
+        <v>2559.04</v>
+      </c>
+      <c r="P76">
+        <v>1196.144</v>
+      </c>
+      <c r="Q76">
+        <v>199.76300000000001</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4717.2690000000002</v>
+      </c>
+      <c r="U76">
+        <v>702.92399999999998</v>
+      </c>
+      <c r="V76">
+        <v>206.81</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>102.139</v>
+      </c>
+      <c r="Y76">
+        <v>110.824</v>
+      </c>
+      <c r="Z76">
+        <v>129.79499999999999</v>
+      </c>
+      <c r="AA76">
+        <v>126.96899999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>81.935000000000002</v>
+      </c>
+      <c r="D77">
+        <v>1429.4280000000001</v>
+      </c>
+      <c r="E77">
+        <v>1154.98</v>
+      </c>
+      <c r="F77">
+        <v>1157.6500000000001</v>
+      </c>
+      <c r="G77">
+        <v>2213.078</v>
+      </c>
+      <c r="H77">
+        <v>6937.43</v>
+      </c>
+      <c r="I77">
+        <v>275.916</v>
+      </c>
+      <c r="J77">
+        <v>1038.567</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1001.596</v>
+      </c>
+      <c r="O77">
+        <v>2526.163</v>
+      </c>
+      <c r="P77">
+        <v>1193.8240000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-206.494</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4411.2669999999998</v>
+      </c>
+      <c r="U77">
+        <v>496.43</v>
+      </c>
+      <c r="V77">
+        <v>351.44799999999998</v>
+      </c>
+      <c r="W77">
+        <v>-57.292999999999999</v>
+      </c>
+      <c r="X77">
+        <v>-407.95299999999997</v>
+      </c>
+      <c r="Y77">
+        <v>103.17700000000001</v>
+      </c>
+      <c r="Z77">
+        <v>40.332999999999998</v>
+      </c>
+      <c r="AA77">
+        <v>81.935000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>154.33099999999999</v>
+      </c>
+      <c r="D78">
+        <v>1442.232</v>
+      </c>
+      <c r="E78">
+        <v>1139.595</v>
+      </c>
+      <c r="F78">
+        <v>1164.846</v>
+      </c>
+      <c r="G78">
+        <v>2096.6239999999998</v>
+      </c>
+      <c r="H78">
+        <v>6894.6220000000003</v>
+      </c>
+      <c r="I78">
+        <v>273.44</v>
+      </c>
+      <c r="J78">
+        <v>1038.3820000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1027.4480000000001</v>
+      </c>
+      <c r="O78">
+        <v>2577.2939999999999</v>
+      </c>
+      <c r="P78">
+        <v>1189.537</v>
+      </c>
+      <c r="Q78">
+        <v>-54.587000000000003</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>27400</v>
+      </c>
+      <c r="T78">
+        <v>4317.3280000000004</v>
+      </c>
+      <c r="U78">
+        <v>441.84300000000002</v>
+      </c>
+      <c r="V78">
+        <v>437.57499999999999</v>
+      </c>
+      <c r="W78">
+        <v>-56.53</v>
+      </c>
+      <c r="X78">
+        <v>-288.57499999999999</v>
+      </c>
+      <c r="Y78">
+        <v>104.614</v>
+      </c>
+      <c r="Z78">
+        <v>25.827999999999999</v>
+      </c>
+      <c r="AA78">
+        <v>154.33099999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>147.15899999999999</v>
+      </c>
+      <c r="D79">
+        <v>1411.741</v>
+      </c>
+      <c r="E79">
+        <v>1151.028</v>
+      </c>
+      <c r="F79">
+        <v>1157.325</v>
+      </c>
+      <c r="G79">
+        <v>1963.606</v>
+      </c>
+      <c r="H79">
+        <v>6736.43</v>
+      </c>
+      <c r="I79">
+        <v>295.95</v>
+      </c>
+      <c r="J79">
+        <v>1338.4169999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1018.486</v>
+      </c>
+      <c r="O79">
+        <v>2873.3510000000001</v>
+      </c>
+      <c r="P79">
+        <v>1518.335</v>
+      </c>
+      <c r="Q79">
+        <v>-156.43100000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3863.0790000000002</v>
+      </c>
+      <c r="U79">
+        <v>285.41199999999998</v>
+      </c>
+      <c r="V79">
+        <v>283.50599999999997</v>
+      </c>
+      <c r="W79">
+        <v>-56.046999999999997</v>
+      </c>
+      <c r="X79">
+        <v>-295.96100000000001</v>
+      </c>
+      <c r="Y79">
+        <v>137.91800000000001</v>
+      </c>
+      <c r="Z79">
+        <v>-3.0819999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>147.15899999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>134.74799999999999</v>
+      </c>
+      <c r="D80">
+        <v>1330.3489999999999</v>
+      </c>
+      <c r="E80">
+        <v>1183.9880000000001</v>
+      </c>
+      <c r="F80">
+        <v>1118.386</v>
+      </c>
+      <c r="G80">
+        <v>2053.547</v>
+      </c>
+      <c r="H80">
+        <v>6879.3410000000003</v>
+      </c>
+      <c r="I80">
+        <v>261.54000000000002</v>
+      </c>
+      <c r="J80">
+        <v>1338.4670000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1006.802</v>
+      </c>
+      <c r="O80">
+        <v>2861.3249999999998</v>
+      </c>
+      <c r="P80">
+        <v>1516.597</v>
+      </c>
+      <c r="Q80">
+        <v>-15.516999999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4018.0160000000001</v>
+      </c>
+      <c r="U80">
+        <v>269.89499999999998</v>
+      </c>
+      <c r="V80">
+        <v>258.58999999999997</v>
+      </c>
+      <c r="W80">
+        <v>-55.054000000000002</v>
+      </c>
+      <c r="X80">
+        <v>-26.608000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>134.13</v>
+      </c>
+      <c r="Z80">
+        <v>-7.8529999999999998</v>
+      </c>
+      <c r="AA80">
+        <v>134.74799999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>356.67599999999999</v>
+      </c>
+      <c r="D81">
+        <v>1368.673</v>
+      </c>
+      <c r="E81">
+        <v>1219.2270000000001</v>
+      </c>
+      <c r="F81">
+        <v>1136.7840000000001</v>
+      </c>
+      <c r="G81">
+        <v>2524.9589999999998</v>
+      </c>
+      <c r="H81">
+        <v>7360.8119999999999</v>
+      </c>
+      <c r="I81">
+        <v>256.44900000000001</v>
+      </c>
+      <c r="J81">
+        <v>1336.018</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1101.576</v>
+      </c>
+      <c r="O81">
+        <v>2954.5250000000001</v>
+      </c>
+      <c r="P81">
+        <v>1502.1590000000001</v>
+      </c>
+      <c r="Q81">
+        <v>149.25899999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4406.2870000000003</v>
+      </c>
+      <c r="U81">
+        <v>419.154</v>
+      </c>
+      <c r="V81">
+        <v>381.94900000000001</v>
+      </c>
+      <c r="W81">
+        <v>-55.176000000000002</v>
+      </c>
+      <c r="X81">
+        <v>-22.957999999999998</v>
+      </c>
+      <c r="Y81">
+        <v>125.14100000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-287.13400000000001</v>
+      </c>
+      <c r="AA81">
+        <v>356.67599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>141.505</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1395.0250000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1168.712</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1160.3520000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2650.9870000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7521.0959999999995</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>235.755</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1336.069</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1168.626</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3038.529</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1493.088</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>196.46100000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>26400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4482.567</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>615.61500000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>512.66</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-55.183999999999997</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-115.97</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>90.105999999999995</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-65.317999999999998</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>141.505</v>
       </c>
     </row>
